--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_SOx.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.003307954125816505</v>
+        <v>0.006358402840641307</v>
       </c>
       <c r="C2">
-        <v>0.000563625</v>
+        <v>0.001083375</v>
       </c>
       <c r="D2">
-        <v>0.000173101369153766</v>
+        <v>0.0003327277814272987</v>
       </c>
       <c r="E2">
-        <v>1.782280791982011E-05</v>
+        <v>3.42582116303129E-05</v>
       </c>
       <c r="F2">
-        <v>0.0004694805916990498</v>
+        <v>0.0009024147900323052</v>
       </c>
       <c r="G2">
-        <v>0.000242678555841186</v>
+        <v>0.0004664659666168902</v>
       </c>
       <c r="H2">
-        <v>1.865380480528475E-05</v>
+        <v>3.585551702093655E-05</v>
       </c>
       <c r="I2">
-        <v>0.004793316255235611</v>
+        <v>0.009213500107369049</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.003397044225223744</v>
+        <v>0.00652964788201689</v>
       </c>
       <c r="C3">
-        <v>0.000668</v>
+        <v>0.001284</v>
       </c>
       <c r="D3">
-        <v>0.0001331548993490508</v>
+        <v>0.0002559444472517682</v>
       </c>
       <c r="E3">
-        <v>2.450636088975266E-05</v>
+        <v>4.710504099168023E-05</v>
       </c>
       <c r="F3">
-        <v>0.0004071277006140198</v>
+        <v>0.0007825628257311399</v>
       </c>
       <c r="G3">
-        <v>0.0002064162428993995</v>
+        <v>0.0003967641555132171</v>
       </c>
       <c r="H3">
-        <v>7.994487773693461E-06</v>
+        <v>1.536665015182995E-05</v>
       </c>
       <c r="I3">
-        <v>0.004844243916749661</v>
+        <v>0.009311391001656526</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.003431905568470052</v>
+        <v>0.006596656811250821</v>
       </c>
       <c r="C4">
-        <v>0.00079325</v>
+        <v>0.00152475</v>
       </c>
       <c r="D4">
-        <v>0.0001420318926389875</v>
+        <v>0.0002730074104018858</v>
       </c>
       <c r="E4">
-        <v>2.450636088975266E-05</v>
+        <v>4.710504099168023E-05</v>
       </c>
       <c r="F4">
-        <v>0.0003887886150007758</v>
+        <v>0.0007473122479955029</v>
       </c>
       <c r="G4">
-        <v>0.0002287315124020373</v>
+        <v>0.0004396575777308622</v>
       </c>
       <c r="H4">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I4">
-        <v>0.005014543607917402</v>
+        <v>0.009638733521805307</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.004020674921074396</v>
+        <v>0.007728363171645995</v>
       </c>
       <c r="C5">
-        <v>0.00070975</v>
+        <v>0.00136425</v>
       </c>
       <c r="D5">
-        <v>0.0001997323490235761</v>
+        <v>0.0003839166708776523</v>
       </c>
       <c r="E5">
-        <v>3.341776484966272E-05</v>
+        <v>6.42341468068367E-05</v>
       </c>
       <c r="F5">
-        <v>0.0005061587629255382</v>
+        <v>0.0009729159455035788</v>
       </c>
       <c r="G5">
-        <v>0.0002398891471533562</v>
+        <v>0.0004611042888396846</v>
       </c>
       <c r="H5">
-        <v>2.131863406318257E-05</v>
+        <v>4.09777337382132E-05</v>
       </c>
       <c r="I5">
-        <v>0.005730941579089712</v>
+        <v>0.01101576195741196</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.003939331786833005</v>
+        <v>0.007572009003433501</v>
       </c>
       <c r="C6">
-        <v>0.000605375</v>
+        <v>0.001163625</v>
       </c>
       <c r="D6">
-        <v>0.0001775398657987343</v>
+        <v>0.0003412592630023574</v>
       </c>
       <c r="E6">
-        <v>2.896206286970768E-05</v>
+        <v>5.566959389925846E-05</v>
       </c>
       <c r="F6">
-        <v>0.0004914874944349429</v>
+        <v>0.0009447154833150698</v>
       </c>
       <c r="G6">
-        <v>0.000242678555841186</v>
+        <v>0.0004664659666168902</v>
       </c>
       <c r="H6">
-        <v>1.598897554738692E-05</v>
+        <v>3.073330030365989E-05</v>
       </c>
       <c r="I6">
-        <v>0.005501363741324962</v>
+        <v>0.01057447761057074</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.004485492831025192</v>
+        <v>0.008621815561431653</v>
       </c>
       <c r="C7">
-        <v>0.0005845000000000001</v>
+        <v>0.0011235</v>
       </c>
       <c r="D7">
-        <v>0.0001908553557336394</v>
+        <v>0.0003668537077275343</v>
       </c>
       <c r="E7">
-        <v>3.118991385968519E-05</v>
+        <v>5.995187035304758E-05</v>
       </c>
       <c r="F7">
-        <v>0.0004034598834913709</v>
+        <v>0.0007755127101840123</v>
       </c>
       <c r="G7">
-        <v>0.0002147844689628888</v>
+        <v>0.000412849188844834</v>
       </c>
       <c r="H7">
-        <v>2.664829257897822E-05</v>
+        <v>5.12221671727665E-05</v>
       </c>
       <c r="I7">
-        <v>0.005936930745651755</v>
+        <v>0.01141170520571385</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.004981298601639377</v>
+        <v>0.009574831443869697</v>
       </c>
       <c r="C8">
-        <v>0.0004592499999999999</v>
+        <v>0.0008827499999999999</v>
       </c>
       <c r="D8">
-        <v>0.000261871302053133</v>
+        <v>0.0005033574129284773</v>
       </c>
       <c r="E8">
-        <v>5.124057276948284E-05</v>
+        <v>9.849235843714964E-05</v>
       </c>
       <c r="F8">
-        <v>0.0004328024204725617</v>
+        <v>0.0008319136345610316</v>
       </c>
       <c r="G8">
-        <v>0.0001506280691428051</v>
+        <v>0.0002895305999691044</v>
       </c>
       <c r="H8">
-        <v>2.931312183687603E-05</v>
+        <v>5.634438389004315E-05</v>
       </c>
       <c r="I8">
-        <v>0.006366404087914235</v>
+        <v>0.0122372198336555</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>0.005775362531138651</v>
+        <v>0.01110114594308687</v>
       </c>
       <c r="C9">
-        <v>0.00029225</v>
+        <v>0.0005617500000000001</v>
       </c>
       <c r="D9">
-        <v>0.0002174863356034495</v>
+        <v>0.000418042597177888</v>
       </c>
       <c r="E9">
-        <v>6.237982771937037E-05</v>
+        <v>0.0001199037407060952</v>
       </c>
       <c r="F9">
-        <v>0.0002127333931136319</v>
+        <v>0.0004089067017333883</v>
       </c>
       <c r="G9">
-        <v>0.000131102208327997</v>
+        <v>0.0002519988555286649</v>
       </c>
       <c r="H9">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I9">
-        <v>0.006701973612934692</v>
+        <v>0.01288223670510201</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>0.006468715913481925</v>
+        <v>0.01243387909118383</v>
       </c>
       <c r="C10">
-        <v>0.000271375</v>
+        <v>0.0005216249999999998</v>
       </c>
       <c r="D10">
-        <v>0.0001375933959940191</v>
+        <v>0.000264475928826827</v>
       </c>
       <c r="E10">
-        <v>9.134189058907809E-05</v>
+        <v>0.0001755733346053536</v>
       </c>
       <c r="F10">
-        <v>0.0001430448677833043</v>
+        <v>0.000274954506337968</v>
       </c>
       <c r="G10">
-        <v>0.0001478386604549753</v>
+        <v>0.0002841689221918988</v>
       </c>
       <c r="H10">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I10">
-        <v>0.007265239386819098</v>
+        <v>0.01396492121658043</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.004497113278773965</v>
+        <v>0.008644151871176297</v>
       </c>
       <c r="C11">
-        <v>0.000354875</v>
+        <v>0.0006821249999999999</v>
       </c>
       <c r="D11">
-        <v>7.101594631949376E-05</v>
+        <v>0.0001365037052009429</v>
       </c>
       <c r="E11">
-        <v>8.911403959910057E-05</v>
+        <v>0.0001712910581515645</v>
       </c>
       <c r="F11">
-        <v>0.0001467126849059531</v>
+        <v>0.0002820046218850955</v>
       </c>
       <c r="G11">
-        <v>0.0001506280691428051</v>
+        <v>0.0002895305999691044</v>
       </c>
       <c r="H11">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I11">
-        <v>0.005314788677257114</v>
+        <v>0.01021585128981756</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.003567477458872368</v>
+        <v>0.006857247091604965</v>
       </c>
       <c r="C12">
-        <v>0.000438375</v>
+        <v>0.0008426249999999999</v>
       </c>
       <c r="D12">
-        <v>0.0001065239194792406</v>
+        <v>0.0002047555578014146</v>
       </c>
       <c r="E12">
-        <v>6.683552969932544E-05</v>
+        <v>0.0001284682936136734</v>
       </c>
       <c r="F12">
-        <v>9.90310623115183E-05</v>
+        <v>0.0001903531197724393</v>
       </c>
       <c r="G12">
-        <v>0.0002092056515872293</v>
+        <v>0.0004021258332904228</v>
       </c>
       <c r="I12">
-        <v>0.004487448621949682</v>
+        <v>0.008625574896082915</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.003156888305082497</v>
+        <v>0.006068030813960966</v>
       </c>
       <c r="C13">
-        <v>0.0004592499999999999</v>
+        <v>0.0008827499999999999</v>
       </c>
       <c r="D13">
-        <v>7.989293960943045E-05</v>
+        <v>0.000153566668351061</v>
       </c>
       <c r="E13">
-        <v>2.227850989977514E-05</v>
+        <v>4.282276453789114E-05</v>
       </c>
       <c r="F13">
-        <v>0.0001026988794341671</v>
+        <v>0.0001974032353195668</v>
       </c>
       <c r="G13">
-        <v>0.0001227339822645079</v>
+        <v>0.0002359138221970479</v>
       </c>
       <c r="I13">
-        <v>0.003943742616290377</v>
+        <v>0.007580487304366532</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.002002590495371351</v>
+        <v>0.003849290712659903</v>
       </c>
       <c r="C14">
-        <v>0.0003757500000000001</v>
+        <v>0.00072225</v>
       </c>
       <c r="D14">
-        <v>5.770045638458864E-05</v>
+        <v>0.0001109092604757663</v>
       </c>
       <c r="E14">
-        <v>3.341776484966272E-05</v>
+        <v>6.42341468068367E-05</v>
       </c>
       <c r="F14">
-        <v>8.435979382092301E-05</v>
+        <v>0.0001621526575839298</v>
       </c>
       <c r="G14">
-        <v>0.0001422598430793159</v>
+        <v>0.0002734455666374875</v>
       </c>
       <c r="I14">
-        <v>0.002696078353505842</v>
+        <v>0.005182282344163923</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.001270502287198845</v>
+        <v>0.002442103198747482</v>
       </c>
       <c r="C15">
-        <v>0.0003757500000000001</v>
+        <v>0.00072225</v>
       </c>
       <c r="D15">
-        <v>1.331548993490507E-05</v>
+        <v>2.559444472517682E-05</v>
       </c>
       <c r="E15">
-        <v>2.005065890979763E-05</v>
+        <v>3.854048808410202E-05</v>
       </c>
       <c r="F15">
-        <v>4.03459883491371E-05</v>
+        <v>7.755127101840125E-05</v>
       </c>
       <c r="G15">
-        <v>0.0001032081214496998</v>
+        <v>0.0001983820777566085</v>
       </c>
       <c r="I15">
-        <v>0.001823172545842384</v>
+        <v>0.00350442148033177</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.0006236306958506528</v>
+        <v>0.001198715289629099</v>
       </c>
       <c r="C16">
-        <v>0.000354875</v>
+        <v>0.0006821249999999999</v>
       </c>
       <c r="D16">
-        <v>4.43849664496836E-06</v>
+        <v>8.531481575058931E-06</v>
       </c>
       <c r="E16">
-        <v>1.559495692984259E-05</v>
+        <v>2.997593517652379E-05</v>
       </c>
       <c r="F16">
-        <v>7.335634245297655E-05</v>
+        <v>0.0001410023109425477</v>
       </c>
       <c r="G16">
-        <v>9.762930407404033E-05</v>
+        <v>0.0001876587222021973</v>
       </c>
       <c r="H16">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I16">
-        <v>0.001172189625210378</v>
+        <v>0.002253130956242703</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.0004415770144532573</v>
+        <v>0.0008487797702963805</v>
       </c>
       <c r="C17">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D17">
-        <v>8.876993289936721E-06</v>
+        <v>1.706296315011786E-05</v>
       </c>
       <c r="E17">
-        <v>8.911403959910054E-06</v>
+        <v>1.712910581515645E-05</v>
       </c>
       <c r="F17">
-        <v>7.702415957562539E-05</v>
+        <v>0.000148052426489675</v>
       </c>
       <c r="G17">
-        <v>9.48398953862106E-05</v>
+        <v>0.0001822970444249916</v>
       </c>
       <c r="I17">
-        <v>0.0008191044666649401</v>
+        <v>0.001574446310176321</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.0003060051240509414</v>
+        <v>0.0005881894899422287</v>
       </c>
       <c r="C18">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D18">
-        <v>1.331548993490507E-05</v>
+        <v>2.559444472517682E-05</v>
       </c>
       <c r="F18">
-        <v>6.602070820767888E-05</v>
+        <v>0.000126902079848293</v>
       </c>
       <c r="G18">
-        <v>8.368226063489176E-05</v>
+        <v>0.0001608503333161691</v>
       </c>
       <c r="I18">
-        <v>0.0005942735828284171</v>
+        <v>0.001142286347831868</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.0002788907459704783</v>
+        <v>0.0005360714338713984</v>
       </c>
       <c r="C19">
-        <v>0.00020875</v>
+        <v>0.00040125</v>
       </c>
       <c r="D19">
-        <v>1.331548993490507E-05</v>
+        <v>2.559444472517682E-05</v>
       </c>
       <c r="E19">
-        <v>4.455701979955027E-06</v>
+        <v>8.564552907578225E-06</v>
       </c>
       <c r="F19">
-        <v>6.235289108503005E-05</v>
+        <v>0.0001198519643011656</v>
       </c>
       <c r="G19">
-        <v>0.0001283127996401673</v>
+        <v>0.0002466371777514592</v>
       </c>
       <c r="I19">
-        <v>0.0006960776286105358</v>
+        <v>0.001337969573556778</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.0004803118402824904</v>
+        <v>0.0009232341361118527</v>
       </c>
       <c r="C20">
-        <v>0.00020875</v>
+        <v>0.00040125</v>
       </c>
       <c r="D20">
-        <v>1.331548993490507E-05</v>
+        <v>2.559444472517682E-05</v>
       </c>
       <c r="E20">
-        <v>8.911403959910054E-06</v>
+        <v>1.712910581515645E-05</v>
       </c>
       <c r="F20">
-        <v>9.536324518886948E-05</v>
+        <v>0.000183303004225312</v>
       </c>
       <c r="G20">
-        <v>0.0002343103297776967</v>
+        <v>0.0004503809332852733</v>
       </c>
       <c r="H20">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I20">
-        <v>0.00104362713840177</v>
+        <v>0.002006013840880048</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.001576507411249787</v>
+        <v>0.00303029268868971</v>
       </c>
       <c r="C21">
-        <v>0.00020875</v>
+        <v>0.00040125</v>
       </c>
       <c r="D21">
-        <v>4.438496644968357E-05</v>
+        <v>8.531481575058936E-05</v>
       </c>
       <c r="E21">
-        <v>4.455701979955029E-05</v>
+        <v>8.564552907578227E-05</v>
       </c>
       <c r="F21">
-        <v>0.0001137023308021136</v>
+        <v>0.000218553581960949</v>
       </c>
       <c r="G21">
-        <v>0.0003403078599152264</v>
+        <v>0.0006541246888190877</v>
       </c>
       <c r="H21">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I21">
-        <v>0.002330874417474258</v>
+        <v>0.004480303521013395</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.003520995667877288</v>
+        <v>0.006767901852626405</v>
       </c>
       <c r="C22">
-        <v>0.000167</v>
+        <v>0.000321</v>
       </c>
       <c r="D22">
-        <v>0.0001198394094141457</v>
+        <v>0.0002303500025265914</v>
       </c>
       <c r="E22">
-        <v>9.579759256903311E-05</v>
+        <v>0.0001841378875129319</v>
       </c>
       <c r="F22">
-        <v>0.000315432272547799</v>
+        <v>0.0006063099370529551</v>
       </c>
       <c r="G22">
-        <v>0.0003682019467935236</v>
+        <v>0.0007077414665911438</v>
       </c>
       <c r="H22">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I22">
-        <v>0.004597926206233382</v>
+        <v>0.008837930013179134</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.005496471785168176</v>
+        <v>0.01056507450921547</v>
       </c>
       <c r="C23">
-        <v>0.00029225</v>
+        <v>0.0005617500000000001</v>
       </c>
       <c r="D23">
-        <v>0.000173101369153766</v>
+        <v>0.0003327277814272987</v>
       </c>
       <c r="E23">
-        <v>8.688618860912305E-05</v>
+        <v>0.0001670087816977754</v>
       </c>
       <c r="F23">
-        <v>0.0003484426266516387</v>
+        <v>0.0006697609769771014</v>
       </c>
       <c r="G23">
-        <v>0.0003124137730369292</v>
+        <v>0.0006005079110470311</v>
       </c>
       <c r="H23">
-        <v>1.598897554738692E-05</v>
+        <v>3.073330030365989E-05</v>
       </c>
       <c r="I23">
-        <v>0.006725554718167019</v>
+        <v>0.01292756326066834</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>0.006507450739311157</v>
+        <v>0.0125083334569993</v>
       </c>
       <c r="C24">
-        <v>0.0006262499999999999</v>
+        <v>0.00120375</v>
       </c>
       <c r="D24">
-        <v>0.0001952938523786078</v>
+        <v>0.0003753851893025932</v>
       </c>
       <c r="E24">
-        <v>9.356974157905561E-05</v>
+        <v>0.0001798556110591428</v>
       </c>
       <c r="F24">
-        <v>0.0004621449574537521</v>
+        <v>0.0008883145589380506</v>
       </c>
       <c r="G24">
-        <v>0.0003040455469734398</v>
+        <v>0.0005844228777154143</v>
       </c>
       <c r="H24">
-        <v>1.865380480528475E-05</v>
+        <v>3.585551702093655E-05</v>
       </c>
       <c r="I24">
-        <v>0.008207408642501298</v>
+        <v>0.01577591721103544</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.004214349050220559</v>
+        <v>0.00810063500072335</v>
       </c>
       <c r="C25">
-        <v>0.0004175000000000001</v>
+        <v>0.0008025</v>
       </c>
       <c r="D25">
-        <v>0.0002041708456685445</v>
+        <v>0.000392448152452711</v>
       </c>
       <c r="E25">
-        <v>4.901272177950532E-05</v>
+        <v>9.421008198336047E-05</v>
       </c>
       <c r="F25">
-        <v>0.0004291346033499128</v>
+        <v>0.0008248635190139041</v>
       </c>
       <c r="G25">
-        <v>0.0003235714077882481</v>
+        <v>0.0006219546221558537</v>
       </c>
       <c r="H25">
-        <v>2.131863406318257E-05</v>
+        <v>4.09777337382132E-05</v>
       </c>
       <c r="I25">
-        <v>0.005659057262869953</v>
+        <v>0.01087758911006739</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.003466766911716363</v>
+        <v>0.006663665740484741</v>
       </c>
       <c r="C26">
-        <v>0.000563625</v>
+        <v>0.001083375</v>
       </c>
       <c r="D26">
-        <v>0.000173101369153766</v>
+        <v>0.0003327277814272987</v>
       </c>
       <c r="E26">
-        <v>2.005065890979763E-05</v>
+        <v>3.854048808410202E-05</v>
       </c>
       <c r="F26">
-        <v>0.0005281656656614311</v>
+        <v>0.001015216638786344</v>
       </c>
       <c r="G26">
-        <v>0.0002649938253438239</v>
+        <v>0.0005093593888345353</v>
       </c>
       <c r="H26">
-        <v>1.865380480528475E-05</v>
+        <v>3.585551702093655E-05</v>
       </c>
       <c r="I26">
-        <v>0.005035357235590466</v>
+        <v>0.009678740554637959</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.003455146463967592</v>
+        <v>0.006641329430740105</v>
       </c>
       <c r="C27">
-        <v>0.0006471250000000001</v>
+        <v>0.001243875</v>
       </c>
       <c r="D27">
-        <v>0.0001287164027040824</v>
+        <v>0.0002474129656767092</v>
       </c>
       <c r="E27">
-        <v>2.450636088975266E-05</v>
+        <v>4.710504099168023E-05</v>
       </c>
       <c r="F27">
-        <v>0.0005758472882558659</v>
+        <v>0.001106868140899</v>
       </c>
       <c r="G27">
-        <v>0.0002677832340316534</v>
+        <v>0.0005147210666117411</v>
       </c>
       <c r="H27">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I27">
-        <v>0.005109784066880538</v>
+        <v>0.009821800511788343</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.003249851887072659</v>
+        <v>0.0062467212919181</v>
       </c>
       <c r="C28">
-        <v>0.000563625</v>
+        <v>0.001083375</v>
       </c>
       <c r="D28">
-        <v>0.0001375933959940191</v>
+        <v>0.000264475928826827</v>
       </c>
       <c r="E28">
-        <v>3.787346682961775E-05</v>
+        <v>7.279869971441491E-05</v>
       </c>
       <c r="F28">
-        <v>0.0004291346033499128</v>
+        <v>0.0008248635190139041</v>
       </c>
       <c r="G28">
-        <v>0.0002092056515872293</v>
+        <v>0.0004021258332904228</v>
       </c>
       <c r="H28">
-        <v>2.131863406318257E-05</v>
+        <v>4.09777337382132E-05</v>
       </c>
       <c r="I28">
-        <v>0.00464860263889662</v>
+        <v>0.008935338006501882</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.004016801438491473</v>
+        <v>0.007720917735064444</v>
       </c>
       <c r="C29">
-        <v>0.0005427499999999999</v>
+        <v>0.00104325</v>
       </c>
       <c r="D29">
-        <v>0.0001642243758638293</v>
+        <v>0.0003156648182771808</v>
       </c>
       <c r="E29">
-        <v>2.896206286970768E-05</v>
+        <v>5.566959389925846E-05</v>
       </c>
       <c r="F29">
-        <v>0.0004804840430669964</v>
+        <v>0.0009235651366736876</v>
       </c>
       <c r="G29">
-        <v>0.0002649938253438239</v>
+        <v>0.0005093593888345353</v>
       </c>
       <c r="H29">
-        <v>1.598897554738692E-05</v>
+        <v>3.073330030365989E-05</v>
       </c>
       <c r="I29">
-        <v>0.005514204721183216</v>
+        <v>0.01059915997305277</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.003501628254962673</v>
+        <v>0.006730674669718665</v>
       </c>
       <c r="C30">
-        <v>0.0007306249999999999</v>
+        <v>0.001404375</v>
       </c>
       <c r="D30">
-        <v>0.0001553473825738925</v>
+        <v>0.0002986018551270629</v>
       </c>
       <c r="E30">
-        <v>2.673421187973017E-05</v>
+        <v>5.138731744546936E-05</v>
       </c>
       <c r="F30">
-        <v>0.0004181311519819662</v>
+        <v>0.000803713172372522</v>
       </c>
       <c r="G30">
-        <v>0.0002343103297776967</v>
+        <v>0.0004503809332852733</v>
       </c>
       <c r="H30">
-        <v>2.131863406318257E-05</v>
+        <v>4.09777337382132E-05</v>
       </c>
       <c r="I30">
-        <v>0.005088094965239143</v>
+        <v>0.009780110681687207</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.004380908801286262</v>
+        <v>0.008420788773729882</v>
       </c>
       <c r="C31">
-        <v>0.00070975</v>
+        <v>0.00136425</v>
       </c>
       <c r="D31">
-        <v>0.0002219248322484179</v>
+        <v>0.0004265740787529471</v>
       </c>
       <c r="E31">
-        <v>3.787346682961775E-05</v>
+        <v>7.279869971441491E-05</v>
       </c>
       <c r="F31">
-        <v>0.0003887886150007758</v>
+        <v>0.0007473122479955029</v>
       </c>
       <c r="G31">
-        <v>0.0002092056515872293</v>
+        <v>0.0004021258332904228</v>
       </c>
       <c r="H31">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I31">
-        <v>0.005953781025468099</v>
+        <v>0.01144409406691772</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.005449989994173098</v>
+        <v>0.01047572927023691</v>
       </c>
       <c r="C32">
-        <v>0.0005427499999999999</v>
+        <v>0.00104325</v>
       </c>
       <c r="D32">
-        <v>0.0002973792752128798</v>
+        <v>0.0005716092655289486</v>
       </c>
       <c r="E32">
-        <v>5.346842375946033E-05</v>
+        <v>0.0001027746348909387</v>
       </c>
       <c r="F32">
-        <v>0.0004107955177366685</v>
+        <v>0.0007896129412782672</v>
       </c>
       <c r="G32">
-        <v>0.0001673645212697835</v>
+        <v>0.0003217006666323382</v>
       </c>
       <c r="H32">
-        <v>3.73076096105695E-05</v>
+        <v>7.17110340418731E-05</v>
       </c>
       <c r="I32">
-        <v>0.006959055341762459</v>
+        <v>0.01337638781260928</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>0.006507450739311157</v>
+        <v>0.0125083334569993</v>
       </c>
       <c r="C33">
-        <v>0.0005427499999999999</v>
+        <v>0.00104325</v>
       </c>
       <c r="D33">
-        <v>0.0001952938523786078</v>
+        <v>0.0003753851893025932</v>
       </c>
       <c r="E33">
-        <v>8.020263563919052E-05</v>
+        <v>0.0001541619523364081</v>
       </c>
       <c r="F33">
-        <v>0.0002714184670760132</v>
+        <v>0.0005217085504874265</v>
       </c>
       <c r="G33">
-        <v>0.0001283127996401673</v>
+        <v>0.0002466371777514592</v>
       </c>
       <c r="H33">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I33">
-        <v>0.007736087811076727</v>
+        <v>0.01486996519374629</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>0.006747606659452406</v>
+        <v>0.01296995052505522</v>
       </c>
       <c r="C34">
-        <v>0.00029225</v>
+        <v>0.0005617500000000001</v>
       </c>
       <c r="D34">
-        <v>0.0001331548993490508</v>
+        <v>0.0002559444472517682</v>
       </c>
       <c r="E34">
-        <v>0.0001002532945489881</v>
+        <v>0.0001927024404205101</v>
       </c>
       <c r="F34">
-        <v>0.0001650517705191972</v>
+        <v>0.0003172551996207324</v>
       </c>
       <c r="G34">
-        <v>0.0001478386604549753</v>
+        <v>0.0002841689221918988</v>
       </c>
       <c r="H34">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I34">
-        <v>0.007588820113582516</v>
+        <v>0.01458689375125741</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.004528101139437348</v>
+        <v>0.008703715363828676</v>
       </c>
       <c r="C35">
-        <v>0.000334</v>
+        <v>0.000642</v>
       </c>
       <c r="D35">
-        <v>6.657744967452538E-05</v>
+        <v>0.0001279722236258841</v>
       </c>
       <c r="E35">
-        <v>8.2430486629168E-05</v>
+        <v>0.0001584442287901972</v>
       </c>
       <c r="F35">
-        <v>0.0001723874047644948</v>
+        <v>0.0003313554307149869</v>
       </c>
       <c r="G35">
-        <v>0.0001673645212697835</v>
+        <v>0.0003217006666323382</v>
       </c>
       <c r="H35">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I35">
-        <v>0.005353525831033217</v>
+        <v>0.01029031013030936</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.003842494722259923</v>
+        <v>0.007385873088894821</v>
       </c>
       <c r="C36">
-        <v>0.0003757500000000001</v>
+        <v>0.00072225</v>
       </c>
       <c r="D36">
-        <v>0.0001020854228342723</v>
+        <v>0.0001962240762263555</v>
       </c>
       <c r="E36">
-        <v>6.906338068930293E-05</v>
+        <v>0.0001327505700674625</v>
       </c>
       <c r="F36">
-        <v>0.0001393770506606554</v>
+        <v>0.0002679043907908407</v>
       </c>
       <c r="G36">
-        <v>0.0002147844689628888</v>
+        <v>0.000412849188844834</v>
       </c>
       <c r="H36">
-        <v>7.994487773693461E-06</v>
+        <v>1.536665015182995E-05</v>
       </c>
       <c r="I36">
-        <v>0.004751549533180736</v>
+        <v>0.009133217964976143</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.00327696626515312</v>
+        <v>0.006298839347988932</v>
       </c>
       <c r="C37">
-        <v>0.000396625</v>
+        <v>0.0007623749999999999</v>
       </c>
       <c r="D37">
-        <v>9.320842954433548E-05</v>
+        <v>0.0001791611130762378</v>
       </c>
       <c r="E37">
-        <v>3.118991385968519E-05</v>
+        <v>5.995187035304758E-05</v>
       </c>
       <c r="F37">
-        <v>8.802761094357187E-05</v>
+        <v>0.0001692027731310572</v>
       </c>
       <c r="G37">
-        <v>0.0001227339822645079</v>
+        <v>0.0002359138221970479</v>
       </c>
       <c r="I37">
-        <v>0.00400875120176522</v>
+        <v>0.007705443926746321</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.001363465869189005</v>
+        <v>0.002620793676704614</v>
       </c>
       <c r="C38">
-        <v>0.000334</v>
+        <v>0.000642</v>
       </c>
       <c r="D38">
-        <v>1.331548993490507E-05</v>
+        <v>2.559444472517682E-05</v>
       </c>
       <c r="E38">
-        <v>2.673421187973017E-05</v>
+        <v>5.138731744546936E-05</v>
       </c>
       <c r="F38">
-        <v>6.602070820767888E-05</v>
+        <v>0.000126902079848293</v>
       </c>
       <c r="G38">
-        <v>8.089285194706202E-05</v>
+        <v>0.0001554886555389634</v>
       </c>
       <c r="I38">
-        <v>0.001884429131158381</v>
+        <v>0.003622166174262515</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.0008754070637406684</v>
+        <v>0.001682668667429666</v>
       </c>
       <c r="C39">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D39">
-        <v>1.331548993490507E-05</v>
+        <v>2.559444472517682E-05</v>
       </c>
       <c r="E39">
-        <v>1.336710593986508E-05</v>
+        <v>2.569365872273468E-05</v>
       </c>
       <c r="F39">
-        <v>3.301035410383944E-05</v>
+        <v>6.345103992414651E-05</v>
       </c>
       <c r="G39">
-        <v>7.810344325923231E-05</v>
+        <v>0.0001501269777617578</v>
       </c>
       <c r="I39">
-        <v>0.00120107845697851</v>
+        <v>0.002308659788563482</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.0008831540289065147</v>
+        <v>0.001697559540592761</v>
       </c>
       <c r="C40">
-        <v>0.0003757500000000001</v>
+        <v>0.00072225</v>
       </c>
       <c r="D40">
-        <v>8.876993289936721E-06</v>
+        <v>1.706296315011786E-05</v>
       </c>
       <c r="E40">
-        <v>1.559495692984259E-05</v>
+        <v>2.997593517652379E-05</v>
       </c>
       <c r="F40">
-        <v>5.50172568397324E-05</v>
+        <v>0.0001057517332069108</v>
       </c>
       <c r="G40">
-        <v>0.0001143657562010187</v>
+        <v>0.0002198287888654311</v>
       </c>
       <c r="I40">
-        <v>0.001452758992167045</v>
+        <v>0.002792428960991744</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.0004183361189557176</v>
+        <v>0.0008041071508070979</v>
       </c>
       <c r="C41">
-        <v>0.000354875</v>
+        <v>0.0006821249999999999</v>
       </c>
       <c r="D41">
-        <v>4.43849664496836E-06</v>
+        <v>8.531481575058931E-06</v>
       </c>
       <c r="E41">
-        <v>1.113925494988757E-05</v>
+        <v>2.141138226894557E-05</v>
       </c>
       <c r="F41">
-        <v>5.868507396238122E-05</v>
+        <v>0.0001128018487540382</v>
       </c>
       <c r="G41">
-        <v>0.0001171551648888484</v>
+        <v>0.0002251904666426367</v>
       </c>
       <c r="I41">
-        <v>0.000964629109401803</v>
+        <v>0.001854167330047777</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.0004105891537898708</v>
+        <v>0.0007892162776440032</v>
       </c>
       <c r="C42">
-        <v>0.000229625</v>
+        <v>0.0004413749999999999</v>
       </c>
       <c r="F42">
-        <v>5.868507396238122E-05</v>
+        <v>0.0001128018487540382</v>
       </c>
       <c r="G42">
-        <v>0.0001032081214496998</v>
+        <v>0.0001983820777566085</v>
       </c>
       <c r="I42">
-        <v>0.0008021073492019516</v>
+        <v>0.00154177520415465</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.0003408664672972512</v>
+        <v>0.0006551984191761534</v>
       </c>
       <c r="C43">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D43">
-        <v>4.43849664496836E-06</v>
+        <v>8.531481575058931E-06</v>
       </c>
       <c r="E43">
-        <v>6.683552969932542E-06</v>
+        <v>1.284682936136734E-05</v>
       </c>
       <c r="F43">
-        <v>5.50172568397324E-05</v>
+        <v>0.0001057517332069108</v>
       </c>
       <c r="G43">
-        <v>0.0001394704343914861</v>
+        <v>0.0002680838888602818</v>
       </c>
       <c r="I43">
-        <v>0.0007343512081433707</v>
+        <v>0.001411537352179772</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.0005539080093580329</v>
+        <v>0.00106469743116125</v>
       </c>
       <c r="C44">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D44">
-        <v>1.775398657987344E-05</v>
+        <v>3.412592630023572E-05</v>
       </c>
       <c r="E44">
-        <v>8.911403959910054E-06</v>
+        <v>1.712910581515645E-05</v>
       </c>
       <c r="F44">
-        <v>9.169542806622066E-05</v>
+        <v>0.0001762528886781846</v>
       </c>
       <c r="G44">
-        <v>0.0001924691994602509</v>
+        <v>0.000369955766627189</v>
       </c>
       <c r="I44">
-        <v>0.0009899880274242879</v>
+        <v>0.001902911118582015</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.001599748306747326</v>
+        <v>0.003074965308178993</v>
       </c>
       <c r="C45">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D45">
-        <v>5.770045638458864E-05</v>
+        <v>0.0001109092604757663</v>
       </c>
       <c r="E45">
-        <v>4.010131781959526E-05</v>
+        <v>7.708097616820404E-05</v>
       </c>
       <c r="F45">
-        <v>0.0001650517705191972</v>
+        <v>0.0003172551996207324</v>
       </c>
       <c r="G45">
-        <v>0.0004044642597353099</v>
+        <v>0.000777443277694817</v>
       </c>
       <c r="H45">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I45">
-        <v>0.002394980940463915</v>
+        <v>0.00460352623885579</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.003625579697616219</v>
+        <v>0.006968928640328176</v>
       </c>
       <c r="C46">
-        <v>6.262499999999999E-05</v>
+        <v>0.000120375</v>
       </c>
       <c r="D46">
-        <v>0.0001375933959940191</v>
+        <v>0.000264475928826827</v>
       </c>
       <c r="E46">
-        <v>0.0001069368475189207</v>
+        <v>0.0002055492697818774</v>
       </c>
       <c r="F46">
-        <v>0.0003484426266516387</v>
+        <v>0.0006697609769771014</v>
       </c>
       <c r="G46">
-        <v>0.0004463053900527559</v>
+        <v>0.0008578684443529018</v>
       </c>
       <c r="H46">
-        <v>7.994487773693461E-06</v>
+        <v>1.536665015182995E-05</v>
       </c>
       <c r="I46">
-        <v>0.004735477445607247</v>
+        <v>0.009102324910418713</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.005256315865026933</v>
+        <v>0.01010345744115955</v>
       </c>
       <c r="C47">
-        <v>0.000167</v>
+        <v>0.000321</v>
       </c>
       <c r="D47">
-        <v>0.0001331548993490508</v>
+        <v>0.0002559444472517682</v>
       </c>
       <c r="E47">
-        <v>8.911403959910057E-05</v>
+        <v>0.0001712910581515645</v>
       </c>
       <c r="F47">
-        <v>0.0003227679067930968</v>
+        <v>0.00062041016814721</v>
       </c>
       <c r="G47">
-        <v>0.000281730277470802</v>
+        <v>0.0005415294554977692</v>
       </c>
       <c r="H47">
-        <v>1.332414628948911E-05</v>
+        <v>2.561108358638325E-05</v>
       </c>
       <c r="I47">
-        <v>0.006263407134528473</v>
+        <v>0.01203924365379425</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>0.005945795764787281</v>
+        <v>0.01142874515267495</v>
       </c>
       <c r="C48">
-        <v>0.00029225</v>
+        <v>0.0005617500000000001</v>
       </c>
       <c r="D48">
-        <v>0.0001464703892839558</v>
+        <v>0.0002815388919769449</v>
       </c>
       <c r="E48">
-        <v>7.129123167928043E-05</v>
+        <v>0.0001370328465212516</v>
       </c>
       <c r="F48">
-        <v>0.0003704495293875314</v>
+        <v>0.0007120616702598657</v>
       </c>
       <c r="G48">
-        <v>0.0002538361905925048</v>
+        <v>0.0004879126777257127</v>
       </c>
       <c r="H48">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I48">
-        <v>0.007085422764246349</v>
+        <v>0.01361928567259327</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.004268577806381488</v>
+        <v>0.008204871112865015</v>
       </c>
       <c r="C49">
-        <v>0.000354875</v>
+        <v>0.0006821249999999999</v>
       </c>
       <c r="D49">
-        <v>0.0001686628725087976</v>
+        <v>0.0003241962998522397</v>
       </c>
       <c r="E49">
-        <v>4.901272177950532E-05</v>
+        <v>9.421008198336047E-05</v>
       </c>
       <c r="F49">
-        <v>0.000465812774576401</v>
+        <v>0.0008953646744851779</v>
       </c>
       <c r="G49">
-        <v>0.000343097268603056</v>
+        <v>0.0006594863665962933</v>
       </c>
       <c r="H49">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I49">
-        <v>0.005655368102365044</v>
+        <v>0.01087049796921664</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_SOx.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.9315573099317433</v>
+        <v>0.5430473620687364</v>
       </c>
       <c r="C2">
-        <v>0.02507760000000001</v>
+        <v>0.01461887999999999</v>
       </c>
       <c r="D2">
-        <v>0.1025376565479514</v>
+        <v>0.05977388970857313</v>
       </c>
       <c r="E2">
-        <v>0.03650963922996539</v>
+        <v>0.02128313852785579</v>
       </c>
       <c r="F2">
-        <v>0.1050952288597817</v>
+        <v>0.06126481558337664</v>
       </c>
       <c r="G2">
-        <v>0.4306202217883074</v>
+        <v>0.2510282223138035</v>
       </c>
       <c r="H2">
-        <v>0.04019612319639225</v>
+        <v>0.02343215863851704</v>
       </c>
       <c r="I2">
-        <v>1.671593779554142</v>
+        <v>0.9744484668408624</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.9566460899416142</v>
+        <v>0.5576727594078245</v>
       </c>
       <c r="C3">
-        <v>0.02972159999999999</v>
+        <v>0.01732608</v>
       </c>
       <c r="D3">
-        <v>0.07887512042150105</v>
+        <v>0.0459799151604409</v>
       </c>
       <c r="E3">
-        <v>0.05020075394120239</v>
+        <v>0.02926431547580169</v>
       </c>
       <c r="F3">
-        <v>0.09113726877684195</v>
+        <v>0.05312808226370944</v>
       </c>
       <c r="G3">
-        <v>0.3662746714061466</v>
+        <v>0.2135182580600172</v>
       </c>
       <c r="H3">
-        <v>0.01722690994131097</v>
+        <v>0.01004235370222159</v>
       </c>
       <c r="I3">
-        <v>1.590082414428617</v>
+        <v>0.9269317640700153</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.9664634386411283</v>
+        <v>0.5633957409752937</v>
       </c>
       <c r="C4">
-        <v>0.0352944</v>
+        <v>0.02057472</v>
       </c>
       <c r="D4">
-        <v>0.08413346178293432</v>
+        <v>0.04904524283780361</v>
       </c>
       <c r="E4">
-        <v>0.05020075394120239</v>
+        <v>0.02926431547580169</v>
       </c>
       <c r="F4">
-        <v>0.08703198639950675</v>
+        <v>0.05073492540498376</v>
       </c>
       <c r="G4">
-        <v>0.4058719331797836</v>
+        <v>0.2366013129854243</v>
       </c>
       <c r="H4">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I4">
-        <v>1.640480580572096</v>
+        <v>0.9563111601474549</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.132267550010714</v>
+        <v>0.6600505407814392</v>
       </c>
       <c r="C5">
-        <v>0.03157920000000001</v>
+        <v>0.01840896</v>
       </c>
       <c r="D5">
-        <v>0.1183126806322514</v>
+        <v>0.06896987274066145</v>
       </c>
       <c r="E5">
-        <v>0.06845557355618506</v>
+        <v>0.03990588473972957</v>
       </c>
       <c r="F5">
-        <v>0.1133057936144522</v>
+        <v>0.06605112930082799</v>
       </c>
       <c r="G5">
-        <v>0.4256705640666026</v>
+        <v>0.2481428404481282</v>
       </c>
       <c r="H5">
-        <v>0.04593842651016257</v>
+        <v>0.02677960987259091</v>
       </c>
       <c r="I5">
-        <v>1.935529788390367</v>
+        <v>1.128308837883377</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.109360403045179</v>
+        <v>0.6466969171240113</v>
       </c>
       <c r="C6">
-        <v>0.02693520000000001</v>
+        <v>0.01570176</v>
       </c>
       <c r="D6">
-        <v>0.105166827228668</v>
+        <v>0.06130655354725456</v>
       </c>
       <c r="E6">
-        <v>0.05932816374869375</v>
+        <v>0.03458510010776564</v>
       </c>
       <c r="F6">
-        <v>0.110021567712584</v>
+        <v>0.06413660381384738</v>
       </c>
       <c r="G6">
-        <v>0.4306202217883074</v>
+        <v>0.2510282223138035</v>
       </c>
       <c r="H6">
-        <v>0.03445381988262193</v>
+        <v>0.02008470740444318</v>
       </c>
       <c r="I6">
-        <v>1.875886203406054</v>
+        <v>1.093539864311126</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.26316553267091</v>
+        <v>0.7363569616810269</v>
       </c>
       <c r="C7">
-        <v>0.0260064</v>
+        <v>0.01516032</v>
       </c>
       <c r="D7">
-        <v>0.1130543392708181</v>
+        <v>0.06590454506329869</v>
       </c>
       <c r="E7">
-        <v>0.0638918686524394</v>
+        <v>0.0372454924237476</v>
       </c>
       <c r="F7">
-        <v>0.09031621230137495</v>
+        <v>0.05264945089196428</v>
       </c>
       <c r="G7">
-        <v>0.3811236445712607</v>
+        <v>0.222174403657045</v>
       </c>
       <c r="H7">
-        <v>0.05742303313770324</v>
+        <v>0.03347451234073864</v>
       </c>
       <c r="I7">
-        <v>1.994981030604506</v>
+        <v>1.162965686057821</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.402790047508455</v>
+        <v>0.8177504773072554</v>
       </c>
       <c r="C8">
-        <v>0.0204336</v>
+        <v>0.01191168</v>
       </c>
       <c r="D8">
-        <v>0.1551210701622854</v>
+        <v>0.09042716648220038</v>
       </c>
       <c r="E8">
-        <v>0.1049652127861504</v>
+        <v>0.06118902326758539</v>
       </c>
       <c r="F8">
-        <v>0.09688466410511126</v>
+        <v>0.05647850186592532</v>
       </c>
       <c r="G8">
-        <v>0.2672815169720525</v>
+        <v>0.155810620746499</v>
       </c>
       <c r="H8">
-        <v>0.06316533645147356</v>
+        <v>0.03682196357481249</v>
       </c>
       <c r="I8">
-        <v>2.110641447985528</v>
+        <v>1.230389433244278</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.626407434552961</v>
+        <v>0.9481072796773847</v>
       </c>
       <c r="C9">
-        <v>0.0130032</v>
+        <v>0.007580160000000001</v>
       </c>
       <c r="D9">
-        <v>0.1288293633551181</v>
+        <v>0.07510052809538677</v>
       </c>
       <c r="E9">
-        <v>0.1277837373048788</v>
+        <v>0.0744909848474952</v>
       </c>
       <c r="F9">
-        <v>0.04762127557708858</v>
+        <v>0.02776061956121754</v>
       </c>
       <c r="G9">
-        <v>0.23263391292012</v>
+        <v>0.1356129476867678</v>
       </c>
       <c r="H9">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I9">
-        <v>2.199248136965248</v>
+        <v>1.282042324804547</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1.821663592021091</v>
+        <v>1.061931024185937</v>
       </c>
       <c r="C10">
-        <v>0.0120744</v>
+        <v>0.007038720000000001</v>
       </c>
       <c r="D10">
-        <v>0.08150429110221769</v>
+        <v>0.04751257899912228</v>
       </c>
       <c r="E10">
-        <v>0.1871119010535726</v>
+        <v>0.1090760849552609</v>
       </c>
       <c r="F10">
-        <v>0.03202120254321476</v>
+        <v>0.01866662349806007</v>
       </c>
       <c r="G10">
-        <v>0.262331859250348</v>
+        <v>0.1529252388808231</v>
       </c>
       <c r="H10">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I10">
-        <v>2.408191852597985</v>
+        <v>1.403845172987351</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.266437982237417</v>
+        <v>0.7382646222035172</v>
       </c>
       <c r="C11">
-        <v>0.0157896</v>
+        <v>0.009204480000000001</v>
       </c>
       <c r="D11">
-        <v>0.04206673089146716</v>
+        <v>0.02452262141890181</v>
       </c>
       <c r="E11">
-        <v>0.1825481961498269</v>
+        <v>0.1064156926392789</v>
       </c>
       <c r="F11">
-        <v>0.03284225901868182</v>
+        <v>0.0191452548698052</v>
       </c>
       <c r="G11">
-        <v>0.2672815169720525</v>
+        <v>0.155810620746499</v>
       </c>
       <c r="H11">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I11">
-        <v>1.818450891896986</v>
+        <v>1.06005819434615</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.004642016917019</v>
+        <v>0.5856517804043401</v>
       </c>
       <c r="C12">
-        <v>0.01950480000000001</v>
+        <v>0.01137024</v>
       </c>
       <c r="D12">
-        <v>0.06310009633720076</v>
+        <v>0.03678393212835276</v>
       </c>
       <c r="E12">
-        <v>0.1369111471123701</v>
+        <v>0.07981176947945914</v>
       </c>
       <c r="F12">
-        <v>0.02216852483761019</v>
+        <v>0.01292304703711851</v>
       </c>
       <c r="G12">
-        <v>0.3712243291278514</v>
+        <v>0.216403639925693</v>
       </c>
       <c r="I12">
-        <v>1.617550914332051</v>
+        <v>0.9429444089749635</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.8890154655671783</v>
+        <v>0.5182477752763706</v>
       </c>
       <c r="C13">
-        <v>0.0204336</v>
+        <v>0.01191168</v>
       </c>
       <c r="D13">
-        <v>0.04732507225290059</v>
+        <v>0.02758794909626453</v>
       </c>
       <c r="E13">
-        <v>0.04563704903745673</v>
+        <v>0.02660392315981972</v>
       </c>
       <c r="F13">
-        <v>0.02298958131307726</v>
+        <v>0.01340167840886364</v>
       </c>
       <c r="G13">
-        <v>0.2177849397550059</v>
+        <v>0.1269568020897399</v>
       </c>
       <c r="I13">
-        <v>1.243185707925619</v>
+        <v>0.7247098080310583</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.5639521419610202</v>
+        <v>0.3287534967090598</v>
       </c>
       <c r="C14">
-        <v>0.0167184</v>
+        <v>0.009745919999999998</v>
       </c>
       <c r="D14">
-        <v>0.0341792188493171</v>
+        <v>0.01992462990285773</v>
       </c>
       <c r="E14">
-        <v>0.06845557355618506</v>
+        <v>0.03990588473972957</v>
       </c>
       <c r="F14">
-        <v>0.01888429893574202</v>
+        <v>0.01100852155013799</v>
       </c>
       <c r="G14">
-        <v>0.2524325438069381</v>
+        <v>0.1471544751494714</v>
       </c>
       <c r="I14">
-        <v>0.9546221771092025</v>
+        <v>0.5564929280512565</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.3577878192712078</v>
+        <v>0.2085708837922081</v>
       </c>
       <c r="C15">
-        <v>0.0167184</v>
+        <v>0.009745919999999998</v>
       </c>
       <c r="D15">
-        <v>0.007887512042150095</v>
+        <v>0.004597991516044096</v>
       </c>
       <c r="E15">
-        <v>0.04107334413371105</v>
+        <v>0.02394353084383776</v>
       </c>
       <c r="F15">
-        <v>0.009031621230137492</v>
+        <v>0.00526494508919643</v>
       </c>
       <c r="G15">
-        <v>0.1831373357030733</v>
+        <v>0.1067591290300086</v>
       </c>
       <c r="I15">
-        <v>0.6156360323802799</v>
+        <v>0.358882400271295</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.175621460069099</v>
+        <v>0.1023777813736143</v>
       </c>
       <c r="C16">
-        <v>0.0157896</v>
+        <v>0.009204480000000001</v>
       </c>
       <c r="D16">
-        <v>0.002629170680716698</v>
+        <v>0.001532663838681363</v>
       </c>
       <c r="E16">
-        <v>0.0319459343262197</v>
+        <v>0.0186227462118738</v>
       </c>
       <c r="F16">
-        <v>0.01642112950934091</v>
+        <v>0.0095726274349026</v>
       </c>
       <c r="G16">
-        <v>0.1732380202596636</v>
+        <v>0.1009883652986567</v>
       </c>
       <c r="H16">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I16">
-        <v>0.4213876181588103</v>
+        <v>0.2456461153918027</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.1243530835271881</v>
+        <v>0.07249109985460883</v>
       </c>
       <c r="C17">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D17">
-        <v>0.005258341361433395</v>
+        <v>0.003065327677362726</v>
       </c>
       <c r="E17">
-        <v>0.0182548196149827</v>
+        <v>0.01064156926392789</v>
       </c>
       <c r="F17">
-        <v>0.01724218598480794</v>
+        <v>0.01005125880664772</v>
       </c>
       <c r="G17">
-        <v>0.1682883625379591</v>
+        <v>0.09810298343298088</v>
       </c>
       <c r="I17">
-        <v>0.3417559930263713</v>
+        <v>0.199225199035528</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.086174505251297</v>
+        <v>0.0502350604255623</v>
       </c>
       <c r="C18">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D18">
-        <v>0.007887512042150095</v>
+        <v>0.004597991516044096</v>
       </c>
       <c r="F18">
-        <v>0.01477901655840681</v>
+        <v>0.008615364691412339</v>
       </c>
       <c r="G18">
-        <v>0.1484897316511404</v>
+        <v>0.08656145597027713</v>
       </c>
       <c r="I18">
-        <v>0.2629035655029943</v>
+        <v>0.1532585126032959</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.07853878959611875</v>
+        <v>0.04578385253975296</v>
       </c>
       <c r="C19">
-        <v>0.009288000000000003</v>
+        <v>0.005414399999999999</v>
       </c>
       <c r="D19">
-        <v>0.007887512042150095</v>
+        <v>0.004597991516044096</v>
       </c>
       <c r="E19">
-        <v>0.009127409807491348</v>
+        <v>0.005320784631963947</v>
       </c>
       <c r="F19">
-        <v>0.01395796008293976</v>
+        <v>0.008136733319667213</v>
       </c>
       <c r="G19">
-        <v>0.2276842551984155</v>
+        <v>0.1327275658210917</v>
       </c>
       <c r="I19">
-        <v>0.3464839267271154</v>
+        <v>0.2019813278285199</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.1352612487488713</v>
+        <v>0.07884996826290792</v>
       </c>
       <c r="C20">
-        <v>0.009288000000000003</v>
+        <v>0.005414399999999999</v>
       </c>
       <c r="D20">
-        <v>0.007887512042150095</v>
+        <v>0.004597991516044096</v>
       </c>
       <c r="E20">
-        <v>0.0182548196149827</v>
+        <v>0.01064156926392789</v>
       </c>
       <c r="F20">
-        <v>0.02134746836214316</v>
+        <v>0.01244441566537338</v>
       </c>
       <c r="G20">
-        <v>0.4157712486231928</v>
+        <v>0.2423720767167763</v>
       </c>
       <c r="H20">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I20">
-        <v>0.6135526007051104</v>
+        <v>0.3576678726591035</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.4439623245225053</v>
+        <v>0.2588059442177702</v>
       </c>
       <c r="C21">
-        <v>0.009288000000000003</v>
+        <v>0.005414399999999999</v>
       </c>
       <c r="D21">
-        <v>0.02629170680716701</v>
+        <v>0.01532663838681364</v>
       </c>
       <c r="E21">
-        <v>0.09127409807491346</v>
+        <v>0.05320784631963944</v>
       </c>
       <c r="F21">
-        <v>0.02545275073947839</v>
+        <v>0.01483757252409902</v>
       </c>
       <c r="G21">
-        <v>0.6038582420479706</v>
+        <v>0.352016587612461</v>
       </c>
       <c r="H21">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I21">
-        <v>1.205869425505805</v>
+        <v>0.7029564402948572</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.9915522186510001</v>
+        <v>0.5780211383143808</v>
       </c>
       <c r="C22">
-        <v>0.007430399999999997</v>
+        <v>0.004331520000000001</v>
       </c>
       <c r="D22">
-        <v>0.07098760837935099</v>
+        <v>0.04138192364439682</v>
       </c>
       <c r="E22">
-        <v>0.196239310861064</v>
+        <v>0.1143968695872249</v>
       </c>
       <c r="F22">
-        <v>0.0706108568901659</v>
+        <v>0.04116229797008115</v>
       </c>
       <c r="G22">
-        <v>0.6533548192650178</v>
+        <v>0.3808704062692195</v>
       </c>
       <c r="H22">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I22">
-        <v>2.01314442730168</v>
+        <v>1.173553960721599</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.547868644956843</v>
+        <v>0.9023234271376319</v>
       </c>
       <c r="C23">
-        <v>0.0130032</v>
+        <v>0.007580160000000001</v>
       </c>
       <c r="D23">
-        <v>0.1025376565479514</v>
+        <v>0.05977388970857313</v>
       </c>
       <c r="E23">
-        <v>0.1779844912460811</v>
+        <v>0.103755300323297</v>
       </c>
       <c r="F23">
-        <v>0.0780003651693693</v>
+        <v>0.04546998031578735</v>
       </c>
       <c r="G23">
-        <v>0.5543616648309242</v>
+        <v>0.3231627689557014</v>
       </c>
       <c r="H23">
-        <v>0.03445381988262193</v>
+        <v>0.02008470740444318</v>
       </c>
       <c r="I23">
-        <v>2.508209842633791</v>
+        <v>1.462150233845434</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1.832571757242773</v>
+        <v>1.068289892594236</v>
       </c>
       <c r="C24">
-        <v>0.02786399999999999</v>
+        <v>0.0162432</v>
       </c>
       <c r="D24">
-        <v>0.1156835099515348</v>
+        <v>0.06743720890197995</v>
       </c>
       <c r="E24">
-        <v>0.1916756059573182</v>
+        <v>0.1117364772712429</v>
       </c>
       <c r="F24">
-        <v>0.1034531159088476</v>
+        <v>0.06030755283988641</v>
       </c>
       <c r="G24">
-        <v>0.5395126916658102</v>
+        <v>0.3145066233586742</v>
       </c>
       <c r="H24">
-        <v>0.04019612319639225</v>
+        <v>0.02343215863851704</v>
       </c>
       <c r="I24">
-        <v>2.850956803922676</v>
+        <v>1.661953113604536</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.18680837611913</v>
+        <v>0.6918448828229342</v>
       </c>
       <c r="C25">
-        <v>0.01857600000000001</v>
+        <v>0.0108288</v>
       </c>
       <c r="D25">
-        <v>0.1209418513129682</v>
+        <v>0.07050253657934261</v>
       </c>
       <c r="E25">
-        <v>0.1004015078824048</v>
+        <v>0.05852863095160338</v>
       </c>
       <c r="F25">
-        <v>0.09606360762964426</v>
+        <v>0.05599987049418022</v>
       </c>
       <c r="G25">
-        <v>0.5741602957177425</v>
+        <v>0.3347042964184054</v>
       </c>
       <c r="H25">
-        <v>0.04593842651016257</v>
+        <v>0.02677960987259091</v>
       </c>
       <c r="I25">
-        <v>2.142890065172053</v>
+        <v>1.249188627139057</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.9762807873406434</v>
+        <v>0.5691187225427621</v>
       </c>
       <c r="C26">
-        <v>0.02507760000000001</v>
+        <v>0.01461887999999999</v>
       </c>
       <c r="D26">
-        <v>0.1025376565479514</v>
+        <v>0.05977388970857313</v>
       </c>
       <c r="E26">
-        <v>0.04107334413371105</v>
+        <v>0.02394353084383776</v>
       </c>
       <c r="F26">
-        <v>0.1182321324672544</v>
+        <v>0.06892291753129871</v>
       </c>
       <c r="G26">
-        <v>0.4702174835619444</v>
+        <v>0.2741112772392111</v>
       </c>
       <c r="H26">
-        <v>0.04019612319639225</v>
+        <v>0.02343215863851704</v>
       </c>
       <c r="I26">
-        <v>1.773615127247897</v>
+        <v>1.0339213765042</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.9730083377741382</v>
+        <v>0.5672110620202732</v>
       </c>
       <c r="C27">
-        <v>0.0287928</v>
+        <v>0.01678464</v>
       </c>
       <c r="D27">
-        <v>0.07624594974078437</v>
+        <v>0.04444725132175955</v>
       </c>
       <c r="E27">
-        <v>0.05020075394120239</v>
+        <v>0.02926431547580169</v>
       </c>
       <c r="F27">
-        <v>0.128905866648326</v>
+        <v>0.07514512536398543</v>
       </c>
       <c r="G27">
-        <v>0.4751671412836496</v>
+        <v>0.276996659104887</v>
       </c>
       <c r="H27">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I27">
-        <v>1.755290062643182</v>
+        <v>1.023238858223002</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.9151950620992177</v>
+        <v>0.5335090594562888</v>
       </c>
       <c r="C28">
-        <v>0.02507760000000001</v>
+        <v>0.01461887999999999</v>
       </c>
       <c r="D28">
-        <v>0.08150429110221769</v>
+        <v>0.04751257899912228</v>
       </c>
       <c r="E28">
-        <v>0.0775829833636764</v>
+        <v>0.04522666937169353</v>
       </c>
       <c r="F28">
-        <v>0.09606360762964426</v>
+        <v>0.05599987049418022</v>
       </c>
       <c r="G28">
-        <v>0.3712243291278514</v>
+        <v>0.216403639925693</v>
       </c>
       <c r="H28">
-        <v>0.04593842651016257</v>
+        <v>0.02677960987259091</v>
       </c>
       <c r="I28">
-        <v>1.61258629983277</v>
+        <v>0.9400503081195687</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.131176733488544</v>
+        <v>0.6594146539406087</v>
       </c>
       <c r="C29">
-        <v>0.0241488</v>
+        <v>0.01407744</v>
       </c>
       <c r="D29">
-        <v>0.09727931518651786</v>
+        <v>0.05670856203121043</v>
       </c>
       <c r="E29">
-        <v>0.05932816374869375</v>
+        <v>0.03458510010776564</v>
       </c>
       <c r="F29">
-        <v>0.1075583982861829</v>
+        <v>0.06270070969861202</v>
       </c>
       <c r="G29">
-        <v>0.4702174835619444</v>
+        <v>0.2741112772392111</v>
       </c>
       <c r="H29">
-        <v>0.03445381988262193</v>
+        <v>0.02008470740444318</v>
       </c>
       <c r="I29">
-        <v>1.924162714154505</v>
+        <v>1.121682450421851</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.9860981360401586</v>
+        <v>0.5748417041102319</v>
       </c>
       <c r="C30">
-        <v>0.032508</v>
+        <v>0.01895039999999999</v>
       </c>
       <c r="D30">
-        <v>0.09202097382508448</v>
+        <v>0.05364323435384769</v>
       </c>
       <c r="E30">
-        <v>0.05476445884494808</v>
+        <v>0.03192470779178368</v>
       </c>
       <c r="F30">
-        <v>0.09360043820324317</v>
+        <v>0.05456397637894481</v>
       </c>
       <c r="G30">
-        <v>0.4157712486231928</v>
+        <v>0.2423720767167763</v>
       </c>
       <c r="H30">
-        <v>0.04593842651016257</v>
+        <v>0.02677960987259091</v>
       </c>
       <c r="I30">
-        <v>1.72070168204679</v>
+        <v>1.003075709224175</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.233713486572367</v>
+        <v>0.7191880169786199</v>
       </c>
       <c r="C31">
-        <v>0.03157920000000001</v>
+        <v>0.01840896</v>
       </c>
       <c r="D31">
-        <v>0.1314585340358349</v>
+        <v>0.07663319193406826</v>
       </c>
       <c r="E31">
-        <v>0.0775829833636764</v>
+        <v>0.04522666937169353</v>
       </c>
       <c r="F31">
-        <v>0.08703198639950675</v>
+        <v>0.05073492540498376</v>
       </c>
       <c r="G31">
-        <v>0.3712243291278514</v>
+        <v>0.216403639925693</v>
       </c>
       <c r="H31">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I31">
-        <v>1.944075126126777</v>
+        <v>1.133290306083206</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.534778846690822</v>
+        <v>0.8946927850476725</v>
       </c>
       <c r="C32">
-        <v>0.0241488</v>
+        <v>0.01407744</v>
       </c>
       <c r="D32">
-        <v>0.176154435608019</v>
+        <v>0.1026884771916513</v>
       </c>
       <c r="E32">
-        <v>0.1095289176898962</v>
+        <v>0.06384941558356737</v>
       </c>
       <c r="F32">
-        <v>0.09195832525230903</v>
+        <v>0.05360671363545454</v>
       </c>
       <c r="G32">
-        <v>0.2969794633022809</v>
+        <v>0.1731229119405543</v>
       </c>
       <c r="H32">
-        <v>0.0803922463927845</v>
+        <v>0.04686431727703408</v>
       </c>
       <c r="I32">
-        <v>2.313941034936112</v>
+        <v>1.348902060675934</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.832571757242773</v>
+        <v>1.068289892594236</v>
       </c>
       <c r="C33">
-        <v>0.0241488</v>
+        <v>0.01407744</v>
       </c>
       <c r="D33">
-        <v>0.1156835099515348</v>
+        <v>0.06743720890197995</v>
       </c>
       <c r="E33">
-        <v>0.1642933765348442</v>
+        <v>0.09577412337535104</v>
       </c>
       <c r="F33">
-        <v>0.06075817918456135</v>
+        <v>0.03541872150913962</v>
       </c>
       <c r="G33">
-        <v>0.2276842551984155</v>
+        <v>0.1327275658210917</v>
       </c>
       <c r="H33">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I33">
-        <v>2.44810909136721</v>
+        <v>1.427114757138094</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.900202381617208</v>
+        <v>1.10771487672569</v>
       </c>
       <c r="C34">
-        <v>0.0130032</v>
+        <v>0.007580160000000001</v>
       </c>
       <c r="D34">
-        <v>0.07887512042150105</v>
+        <v>0.0459799151604409</v>
       </c>
       <c r="E34">
-        <v>0.2053667206685553</v>
+        <v>0.1197176542191888</v>
       </c>
       <c r="F34">
-        <v>0.03694754139601703</v>
+        <v>0.02153841172853086</v>
       </c>
       <c r="G34">
-        <v>0.262331859250348</v>
+        <v>0.1529252388808231</v>
       </c>
       <c r="H34">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I34">
-        <v>2.5024691266674</v>
+        <v>1.458803707948748</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.275164514414763</v>
+        <v>0.743351716930156</v>
       </c>
       <c r="C35">
-        <v>0.01486079999999999</v>
+        <v>0.008663040000000002</v>
       </c>
       <c r="D35">
-        <v>0.03943756021075052</v>
+        <v>0.02298995758022045</v>
       </c>
       <c r="E35">
-        <v>0.1688570814385898</v>
+        <v>0.09843451569133296</v>
       </c>
       <c r="F35">
-        <v>0.03858965434695113</v>
+        <v>0.02249567447202112</v>
       </c>
       <c r="G35">
-        <v>0.2969794633022809</v>
+        <v>0.1731229119405543</v>
       </c>
       <c r="H35">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I35">
-        <v>1.839631377027106</v>
+        <v>1.072405267848359</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.08208998999097</v>
+        <v>0.6307997461032634</v>
       </c>
       <c r="C36">
-        <v>0.0167184</v>
+        <v>0.009745919999999998</v>
       </c>
       <c r="D36">
-        <v>0.06047092565648409</v>
+        <v>0.0352512682896713</v>
       </c>
       <c r="E36">
-        <v>0.1414748520161159</v>
+        <v>0.08247216179544117</v>
       </c>
       <c r="F36">
-        <v>0.0312001460677477</v>
+        <v>0.01818799212631494</v>
       </c>
       <c r="G36">
-        <v>0.3811236445712607</v>
+        <v>0.222174403657045</v>
       </c>
       <c r="H36">
-        <v>0.01722690994131097</v>
+        <v>0.01004235370222159</v>
       </c>
       <c r="I36">
-        <v>1.73030486824389</v>
+        <v>1.008673845673957</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.9228307777543958</v>
+        <v>0.5379602673420976</v>
       </c>
       <c r="C37">
-        <v>0.0176472</v>
+        <v>0.01028736</v>
       </c>
       <c r="D37">
-        <v>0.05521258429505067</v>
+        <v>0.0321859406123086</v>
       </c>
       <c r="E37">
-        <v>0.0638918686524394</v>
+        <v>0.0372454924237476</v>
       </c>
       <c r="F37">
-        <v>0.01970535541120907</v>
+        <v>0.01148715292188312</v>
       </c>
       <c r="G37">
-        <v>0.2177849397550059</v>
+        <v>0.1269568020897399</v>
       </c>
       <c r="I37">
-        <v>1.297072725868101</v>
+        <v>0.7561230153897767</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.3839674158032477</v>
+        <v>0.2238321679721257</v>
       </c>
       <c r="C38">
-        <v>0.01486079999999999</v>
+        <v>0.008663040000000002</v>
       </c>
       <c r="D38">
-        <v>0.007887512042150095</v>
+        <v>0.004597991516044096</v>
       </c>
       <c r="E38">
-        <v>0.05476445884494808</v>
+        <v>0.03192470779178368</v>
       </c>
       <c r="F38">
-        <v>0.01477901655840681</v>
+        <v>0.008615364691412339</v>
       </c>
       <c r="G38">
-        <v>0.1435400739294356</v>
+        <v>0.08367607410460136</v>
       </c>
       <c r="I38">
-        <v>0.6197992771781884</v>
+        <v>0.3613093460759672</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.2465245340100397</v>
+        <v>0.143710426027558</v>
       </c>
       <c r="C39">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D39">
-        <v>0.007887512042150095</v>
+        <v>0.004597991516044096</v>
       </c>
       <c r="E39">
-        <v>0.02738222942247404</v>
+        <v>0.01596235389589184</v>
       </c>
       <c r="F39">
-        <v>0.007389508279203403</v>
+        <v>0.00430768234570617</v>
       </c>
       <c r="G39">
-        <v>0.138590416207731</v>
+        <v>0.08079069223892535</v>
       </c>
       <c r="I39">
-        <v>0.4361333999615983</v>
+        <v>0.2542421060241254</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.2487061670543762</v>
+        <v>0.1449821997092177</v>
       </c>
       <c r="C40">
-        <v>0.0167184</v>
+        <v>0.009745919999999998</v>
       </c>
       <c r="D40">
-        <v>0.005258341361433395</v>
+        <v>0.003065327677362726</v>
       </c>
       <c r="E40">
-        <v>0.0319459343262197</v>
+        <v>0.0186227462118738</v>
       </c>
       <c r="F40">
-        <v>0.01231584713200568</v>
+        <v>0.007179470576176949</v>
       </c>
       <c r="G40">
-        <v>0.2029359665898918</v>
+        <v>0.1183006564927121</v>
       </c>
       <c r="I40">
-        <v>0.5178806564639268</v>
+        <v>0.3018963206673433</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.1178081843941783</v>
+        <v>0.06867577880962951</v>
       </c>
       <c r="C41">
-        <v>0.0157896</v>
+        <v>0.009204480000000001</v>
       </c>
       <c r="D41">
-        <v>0.002629170680716698</v>
+        <v>0.001532663838681363</v>
       </c>
       <c r="E41">
-        <v>0.02281852451872837</v>
+        <v>0.01330196157990986</v>
       </c>
       <c r="F41">
-        <v>0.01313690360747271</v>
+        <v>0.00765810194792208</v>
       </c>
       <c r="G41">
-        <v>0.2078856243115964</v>
+        <v>0.1211860383583881</v>
       </c>
       <c r="I41">
-        <v>0.3800680075126925</v>
+        <v>0.221559024534531</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1156265513498416</v>
+        <v>0.06740400512796962</v>
       </c>
       <c r="C42">
-        <v>0.0102168</v>
+        <v>0.00595584</v>
       </c>
       <c r="F42">
-        <v>0.01313690360747271</v>
+        <v>0.00765810194792208</v>
       </c>
       <c r="G42">
-        <v>0.1831373357030733</v>
+        <v>0.1067591290300086</v>
       </c>
       <c r="I42">
-        <v>0.3221175906603876</v>
+        <v>0.1877770761059003</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.09599185395081193</v>
+        <v>0.05595804199303143</v>
       </c>
       <c r="C43">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D43">
-        <v>0.002629170680716698</v>
+        <v>0.001532663838681363</v>
       </c>
       <c r="E43">
-        <v>0.01369111471123702</v>
+        <v>0.007981176947945921</v>
       </c>
       <c r="F43">
-        <v>0.01231584713200568</v>
+        <v>0.007179470576176949</v>
       </c>
       <c r="G43">
-        <v>0.247482886085234</v>
+        <v>0.1442690932837954</v>
       </c>
       <c r="I43">
-        <v>0.3804700725600053</v>
+        <v>0.221793406639631</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.1559867626700695</v>
+        <v>0.09093181823867605</v>
       </c>
       <c r="C44">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D44">
-        <v>0.01051668272286679</v>
+        <v>0.006130655354725452</v>
       </c>
       <c r="E44">
-        <v>0.0182548196149827</v>
+        <v>0.01064156926392789</v>
       </c>
       <c r="F44">
-        <v>0.02052641188667614</v>
+        <v>0.01196578429362825</v>
       </c>
       <c r="G44">
-        <v>0.3415263827976227</v>
+        <v>0.1990913487316375</v>
       </c>
       <c r="I44">
-        <v>0.5523838596922177</v>
+        <v>0.3220098158825952</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.4505072236555147</v>
+        <v>0.2626212652627498</v>
       </c>
       <c r="C45">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D45">
-        <v>0.0341792188493171</v>
+        <v>0.01992462990285773</v>
       </c>
       <c r="E45">
-        <v>0.08214668826742211</v>
+        <v>0.04788706168767552</v>
       </c>
       <c r="F45">
-        <v>0.03694754139601703</v>
+        <v>0.02153841172853086</v>
       </c>
       <c r="G45">
-        <v>0.7177003696471789</v>
+        <v>0.4183803705230066</v>
       </c>
       <c r="H45">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I45">
-        <v>1.33279614512922</v>
+        <v>0.7769478303388944</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.021004264749545</v>
+        <v>0.5951900830167896</v>
       </c>
       <c r="C46">
-        <v>0.0027864</v>
+        <v>0.001624320000000001</v>
       </c>
       <c r="D46">
-        <v>0.08150429110221769</v>
+        <v>0.04751257899912228</v>
       </c>
       <c r="E46">
-        <v>0.2190578353797923</v>
+        <v>0.1276988311671347</v>
       </c>
       <c r="F46">
-        <v>0.0780003651693693</v>
+        <v>0.04546998031578735</v>
       </c>
       <c r="G46">
-        <v>0.7919452354727492</v>
+        <v>0.4616610985081449</v>
       </c>
       <c r="H46">
-        <v>0.01722690994131097</v>
+        <v>0.01004235370222159</v>
       </c>
       <c r="I46">
-        <v>2.211525301814985</v>
+        <v>1.289199245709201</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.480238020582407</v>
+        <v>0.8628984430061784</v>
       </c>
       <c r="C47">
-        <v>0.007430399999999997</v>
+        <v>0.004331520000000001</v>
       </c>
       <c r="D47">
-        <v>0.07887512042150105</v>
+        <v>0.0459799151604409</v>
       </c>
       <c r="E47">
-        <v>0.1825481961498269</v>
+        <v>0.1064156926392789</v>
       </c>
       <c r="F47">
-        <v>0.07225296984109994</v>
+        <v>0.04211956071357144</v>
       </c>
       <c r="G47">
-        <v>0.4999154298921729</v>
+        <v>0.2914235684332667</v>
       </c>
       <c r="H47">
-        <v>0.02871151656885162</v>
+        <v>0.01673725617036932</v>
       </c>
       <c r="I47">
-        <v>2.349971653455859</v>
+        <v>1.369905956123106</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1.674403361528368</v>
+        <v>0.9760863006738997</v>
       </c>
       <c r="C48">
-        <v>0.0130032</v>
+        <v>0.007580160000000001</v>
       </c>
       <c r="D48">
-        <v>0.08676263246365104</v>
+        <v>0.05057790667648502</v>
       </c>
       <c r="E48">
-        <v>0.1460385569198616</v>
+        <v>0.08513255411142315</v>
       </c>
       <c r="F48">
-        <v>0.08292670402217162</v>
+        <v>0.04834176854625814</v>
       </c>
       <c r="G48">
-        <v>0.4504188526751262</v>
+        <v>0.2625697497765074</v>
       </c>
       <c r="H48">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I48">
-        <v>2.465037914236719</v>
+        <v>1.436983342252721</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.202079807429485</v>
+        <v>0.7007472985945526</v>
       </c>
       <c r="C49">
-        <v>0.0157896</v>
+        <v>0.009204480000000001</v>
       </c>
       <c r="D49">
-        <v>0.09990848586723475</v>
+        <v>0.05824122586989181</v>
       </c>
       <c r="E49">
-        <v>0.1004015078824048</v>
+        <v>0.05852863095160338</v>
       </c>
       <c r="F49">
-        <v>0.1042741723843147</v>
+        <v>0.06078618421163155</v>
       </c>
       <c r="G49">
-        <v>0.6088078997696759</v>
+        <v>0.3549019694781366</v>
       </c>
       <c r="H49">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I49">
-        <v>2.142746079960655</v>
+        <v>1.249104691573964</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_SOx.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.5430473620687364</v>
+        <v>0.9315573099317433</v>
       </c>
       <c r="C2">
-        <v>0.01461887999999999</v>
+        <v>0.02507760000000001</v>
       </c>
       <c r="D2">
-        <v>0.05977388970857313</v>
+        <v>0.1025376565479514</v>
       </c>
       <c r="E2">
-        <v>0.02128313852785579</v>
+        <v>0.03650963922996539</v>
       </c>
       <c r="F2">
-        <v>0.06126481558337664</v>
+        <v>0.1050952288597817</v>
       </c>
       <c r="G2">
-        <v>0.2510282223138035</v>
+        <v>0.4306202217883074</v>
       </c>
       <c r="H2">
-        <v>0.02343215863851704</v>
+        <v>0.04019612319639225</v>
       </c>
       <c r="I2">
-        <v>0.9744484668408624</v>
+        <v>1.671593779554142</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.5576727594078245</v>
+        <v>0.9566460899416142</v>
       </c>
       <c r="C3">
-        <v>0.01732608</v>
+        <v>0.02972159999999999</v>
       </c>
       <c r="D3">
-        <v>0.0459799151604409</v>
+        <v>0.07887512042150105</v>
       </c>
       <c r="E3">
-        <v>0.02926431547580169</v>
+        <v>0.05020075394120239</v>
       </c>
       <c r="F3">
-        <v>0.05312808226370944</v>
+        <v>0.09113726877684195</v>
       </c>
       <c r="G3">
-        <v>0.2135182580600172</v>
+        <v>0.3662746714061466</v>
       </c>
       <c r="H3">
-        <v>0.01004235370222159</v>
+        <v>0.01722690994131097</v>
       </c>
       <c r="I3">
-        <v>0.9269317640700153</v>
+        <v>1.590082414428617</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.5633957409752937</v>
+        <v>0.9664634386411283</v>
       </c>
       <c r="C4">
-        <v>0.02057472</v>
+        <v>0.0352944</v>
       </c>
       <c r="D4">
-        <v>0.04904524283780361</v>
+        <v>0.08413346178293432</v>
       </c>
       <c r="E4">
-        <v>0.02926431547580169</v>
+        <v>0.05020075394120239</v>
       </c>
       <c r="F4">
-        <v>0.05073492540498376</v>
+        <v>0.08703198639950675</v>
       </c>
       <c r="G4">
-        <v>0.2366013129854243</v>
+        <v>0.4058719331797836</v>
       </c>
       <c r="H4">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I4">
-        <v>0.9563111601474549</v>
+        <v>1.640480580572096</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.6600505407814392</v>
+        <v>1.132267550010714</v>
       </c>
       <c r="C5">
-        <v>0.01840896</v>
+        <v>0.03157920000000001</v>
       </c>
       <c r="D5">
-        <v>0.06896987274066145</v>
+        <v>0.1183126806322514</v>
       </c>
       <c r="E5">
-        <v>0.03990588473972957</v>
+        <v>0.06845557355618506</v>
       </c>
       <c r="F5">
-        <v>0.06605112930082799</v>
+        <v>0.1133057936144522</v>
       </c>
       <c r="G5">
-        <v>0.2481428404481282</v>
+        <v>0.4256705640666026</v>
       </c>
       <c r="H5">
-        <v>0.02677960987259091</v>
+        <v>0.04593842651016257</v>
       </c>
       <c r="I5">
-        <v>1.128308837883377</v>
+        <v>1.935529788390367</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.6466969171240113</v>
+        <v>1.109360403045179</v>
       </c>
       <c r="C6">
-        <v>0.01570176</v>
+        <v>0.02693520000000001</v>
       </c>
       <c r="D6">
-        <v>0.06130655354725456</v>
+        <v>0.105166827228668</v>
       </c>
       <c r="E6">
-        <v>0.03458510010776564</v>
+        <v>0.05932816374869375</v>
       </c>
       <c r="F6">
-        <v>0.06413660381384738</v>
+        <v>0.110021567712584</v>
       </c>
       <c r="G6">
-        <v>0.2510282223138035</v>
+        <v>0.4306202217883074</v>
       </c>
       <c r="H6">
-        <v>0.02008470740444318</v>
+        <v>0.03445381988262193</v>
       </c>
       <c r="I6">
-        <v>1.093539864311126</v>
+        <v>1.875886203406054</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.7363569616810269</v>
+        <v>1.26316553267091</v>
       </c>
       <c r="C7">
-        <v>0.01516032</v>
+        <v>0.0260064</v>
       </c>
       <c r="D7">
-        <v>0.06590454506329869</v>
+        <v>0.1130543392708181</v>
       </c>
       <c r="E7">
-        <v>0.0372454924237476</v>
+        <v>0.0638918686524394</v>
       </c>
       <c r="F7">
-        <v>0.05264945089196428</v>
+        <v>0.09031621230137495</v>
       </c>
       <c r="G7">
-        <v>0.222174403657045</v>
+        <v>0.3811236445712607</v>
       </c>
       <c r="H7">
-        <v>0.03347451234073864</v>
+        <v>0.05742303313770324</v>
       </c>
       <c r="I7">
-        <v>1.162965686057821</v>
+        <v>1.994981030604506</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.8177504773072554</v>
+        <v>1.402790047508455</v>
       </c>
       <c r="C8">
-        <v>0.01191168</v>
+        <v>0.0204336</v>
       </c>
       <c r="D8">
-        <v>0.09042716648220038</v>
+        <v>0.1551210701622854</v>
       </c>
       <c r="E8">
-        <v>0.06118902326758539</v>
+        <v>0.1049652127861504</v>
       </c>
       <c r="F8">
-        <v>0.05647850186592532</v>
+        <v>0.09688466410511126</v>
       </c>
       <c r="G8">
-        <v>0.155810620746499</v>
+        <v>0.2672815169720525</v>
       </c>
       <c r="H8">
-        <v>0.03682196357481249</v>
+        <v>0.06316533645147356</v>
       </c>
       <c r="I8">
-        <v>1.230389433244278</v>
+        <v>2.110641447985528</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>0.9481072796773847</v>
+        <v>1.626407434552961</v>
       </c>
       <c r="C9">
-        <v>0.007580160000000001</v>
+        <v>0.0130032</v>
       </c>
       <c r="D9">
-        <v>0.07510052809538677</v>
+        <v>0.1288293633551181</v>
       </c>
       <c r="E9">
-        <v>0.0744909848474952</v>
+        <v>0.1277837373048788</v>
       </c>
       <c r="F9">
-        <v>0.02776061956121754</v>
+        <v>0.04762127557708858</v>
       </c>
       <c r="G9">
-        <v>0.1356129476867678</v>
+        <v>0.23263391292012</v>
       </c>
       <c r="H9">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I9">
-        <v>1.282042324804547</v>
+        <v>2.199248136965248</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1.061931024185937</v>
+        <v>1.821663592021091</v>
       </c>
       <c r="C10">
-        <v>0.007038720000000001</v>
+        <v>0.0120744</v>
       </c>
       <c r="D10">
-        <v>0.04751257899912228</v>
+        <v>0.08150429110221769</v>
       </c>
       <c r="E10">
-        <v>0.1090760849552609</v>
+        <v>0.1871119010535726</v>
       </c>
       <c r="F10">
-        <v>0.01866662349806007</v>
+        <v>0.03202120254321476</v>
       </c>
       <c r="G10">
-        <v>0.1529252388808231</v>
+        <v>0.262331859250348</v>
       </c>
       <c r="H10">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I10">
-        <v>1.403845172987351</v>
+        <v>2.408191852597985</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.7382646222035172</v>
+        <v>1.266437982237417</v>
       </c>
       <c r="C11">
-        <v>0.009204480000000001</v>
+        <v>0.0157896</v>
       </c>
       <c r="D11">
-        <v>0.02452262141890181</v>
+        <v>0.04206673089146716</v>
       </c>
       <c r="E11">
-        <v>0.1064156926392789</v>
+        <v>0.1825481961498269</v>
       </c>
       <c r="F11">
-        <v>0.0191452548698052</v>
+        <v>0.03284225901868182</v>
       </c>
       <c r="G11">
-        <v>0.155810620746499</v>
+        <v>0.2672815169720525</v>
       </c>
       <c r="H11">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I11">
-        <v>1.06005819434615</v>
+        <v>1.818450891896986</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.5856517804043401</v>
+        <v>1.004642016917019</v>
       </c>
       <c r="C12">
-        <v>0.01137024</v>
+        <v>0.01950480000000001</v>
       </c>
       <c r="D12">
-        <v>0.03678393212835276</v>
+        <v>0.06310009633720076</v>
       </c>
       <c r="E12">
-        <v>0.07981176947945914</v>
+        <v>0.1369111471123701</v>
       </c>
       <c r="F12">
-        <v>0.01292304703711851</v>
+        <v>0.02216852483761019</v>
       </c>
       <c r="G12">
-        <v>0.216403639925693</v>
+        <v>0.3712243291278514</v>
       </c>
       <c r="I12">
-        <v>0.9429444089749635</v>
+        <v>1.617550914332051</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.5182477752763706</v>
+        <v>0.8890154655671783</v>
       </c>
       <c r="C13">
-        <v>0.01191168</v>
+        <v>0.0204336</v>
       </c>
       <c r="D13">
-        <v>0.02758794909626453</v>
+        <v>0.04732507225290059</v>
       </c>
       <c r="E13">
-        <v>0.02660392315981972</v>
+        <v>0.04563704903745673</v>
       </c>
       <c r="F13">
-        <v>0.01340167840886364</v>
+        <v>0.02298958131307726</v>
       </c>
       <c r="G13">
-        <v>0.1269568020897399</v>
+        <v>0.2177849397550059</v>
       </c>
       <c r="I13">
-        <v>0.7247098080310583</v>
+        <v>1.243185707925619</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.3287534967090598</v>
+        <v>0.5639521419610202</v>
       </c>
       <c r="C14">
-        <v>0.009745919999999998</v>
+        <v>0.0167184</v>
       </c>
       <c r="D14">
-        <v>0.01992462990285773</v>
+        <v>0.0341792188493171</v>
       </c>
       <c r="E14">
-        <v>0.03990588473972957</v>
+        <v>0.06845557355618506</v>
       </c>
       <c r="F14">
-        <v>0.01100852155013799</v>
+        <v>0.01888429893574202</v>
       </c>
       <c r="G14">
-        <v>0.1471544751494714</v>
+        <v>0.2524325438069381</v>
       </c>
       <c r="I14">
-        <v>0.5564929280512565</v>
+        <v>0.9546221771092025</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.2085708837922081</v>
+        <v>0.3577878192712078</v>
       </c>
       <c r="C15">
-        <v>0.009745919999999998</v>
+        <v>0.0167184</v>
       </c>
       <c r="D15">
-        <v>0.004597991516044096</v>
+        <v>0.007887512042150095</v>
       </c>
       <c r="E15">
-        <v>0.02394353084383776</v>
+        <v>0.04107334413371105</v>
       </c>
       <c r="F15">
-        <v>0.00526494508919643</v>
+        <v>0.009031621230137492</v>
       </c>
       <c r="G15">
-        <v>0.1067591290300086</v>
+        <v>0.1831373357030733</v>
       </c>
       <c r="I15">
-        <v>0.358882400271295</v>
+        <v>0.6156360323802799</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.1023777813736143</v>
+        <v>0.175621460069099</v>
       </c>
       <c r="C16">
-        <v>0.009204480000000001</v>
+        <v>0.0157896</v>
       </c>
       <c r="D16">
-        <v>0.001532663838681363</v>
+        <v>0.002629170680716698</v>
       </c>
       <c r="E16">
-        <v>0.0186227462118738</v>
+        <v>0.0319459343262197</v>
       </c>
       <c r="F16">
-        <v>0.0095726274349026</v>
+        <v>0.01642112950934091</v>
       </c>
       <c r="G16">
-        <v>0.1009883652986567</v>
+        <v>0.1732380202596636</v>
       </c>
       <c r="H16">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I16">
-        <v>0.2456461153918027</v>
+        <v>0.4213876181588103</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.07249109985460883</v>
+        <v>0.1243530835271881</v>
       </c>
       <c r="C17">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D17">
-        <v>0.003065327677362726</v>
+        <v>0.005258341361433395</v>
       </c>
       <c r="E17">
-        <v>0.01064156926392789</v>
+        <v>0.0182548196149827</v>
       </c>
       <c r="F17">
-        <v>0.01005125880664772</v>
+        <v>0.01724218598480794</v>
       </c>
       <c r="G17">
-        <v>0.09810298343298088</v>
+        <v>0.1682883625379591</v>
       </c>
       <c r="I17">
-        <v>0.199225199035528</v>
+        <v>0.3417559930263713</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.0502350604255623</v>
+        <v>0.086174505251297</v>
       </c>
       <c r="C18">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D18">
-        <v>0.004597991516044096</v>
+        <v>0.007887512042150095</v>
       </c>
       <c r="F18">
-        <v>0.008615364691412339</v>
+        <v>0.01477901655840681</v>
       </c>
       <c r="G18">
-        <v>0.08656145597027713</v>
+        <v>0.1484897316511404</v>
       </c>
       <c r="I18">
-        <v>0.1532585126032959</v>
+        <v>0.2629035655029943</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.04578385253975296</v>
+        <v>0.07853878959611875</v>
       </c>
       <c r="C19">
-        <v>0.005414399999999999</v>
+        <v>0.009288000000000003</v>
       </c>
       <c r="D19">
-        <v>0.004597991516044096</v>
+        <v>0.007887512042150095</v>
       </c>
       <c r="E19">
-        <v>0.005320784631963947</v>
+        <v>0.009127409807491348</v>
       </c>
       <c r="F19">
-        <v>0.008136733319667213</v>
+        <v>0.01395796008293976</v>
       </c>
       <c r="G19">
-        <v>0.1327275658210917</v>
+        <v>0.2276842551984155</v>
       </c>
       <c r="I19">
-        <v>0.2019813278285199</v>
+        <v>0.3464839267271154</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.07884996826290792</v>
+        <v>0.1352612487488713</v>
       </c>
       <c r="C20">
-        <v>0.005414399999999999</v>
+        <v>0.009288000000000003</v>
       </c>
       <c r="D20">
-        <v>0.004597991516044096</v>
+        <v>0.007887512042150095</v>
       </c>
       <c r="E20">
-        <v>0.01064156926392789</v>
+        <v>0.0182548196149827</v>
       </c>
       <c r="F20">
-        <v>0.01244441566537338</v>
+        <v>0.02134746836214316</v>
       </c>
       <c r="G20">
-        <v>0.2423720767167763</v>
+        <v>0.4157712486231928</v>
       </c>
       <c r="H20">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I20">
-        <v>0.3576678726591035</v>
+        <v>0.6135526007051104</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.2588059442177702</v>
+        <v>0.4439623245225053</v>
       </c>
       <c r="C21">
-        <v>0.005414399999999999</v>
+        <v>0.009288000000000003</v>
       </c>
       <c r="D21">
-        <v>0.01532663838681364</v>
+        <v>0.02629170680716701</v>
       </c>
       <c r="E21">
-        <v>0.05320784631963944</v>
+        <v>0.09127409807491346</v>
       </c>
       <c r="F21">
-        <v>0.01483757252409902</v>
+        <v>0.02545275073947839</v>
       </c>
       <c r="G21">
-        <v>0.352016587612461</v>
+        <v>0.6038582420479706</v>
       </c>
       <c r="H21">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I21">
-        <v>0.7029564402948572</v>
+        <v>1.205869425505805</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.5780211383143808</v>
+        <v>0.9915522186510001</v>
       </c>
       <c r="C22">
-        <v>0.004331520000000001</v>
+        <v>0.007430399999999997</v>
       </c>
       <c r="D22">
-        <v>0.04138192364439682</v>
+        <v>0.07098760837935099</v>
       </c>
       <c r="E22">
-        <v>0.1143968695872249</v>
+        <v>0.196239310861064</v>
       </c>
       <c r="F22">
-        <v>0.04116229797008115</v>
+        <v>0.0706108568901659</v>
       </c>
       <c r="G22">
-        <v>0.3808704062692195</v>
+        <v>0.6533548192650178</v>
       </c>
       <c r="H22">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I22">
-        <v>1.173553960721599</v>
+        <v>2.01314442730168</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.9023234271376319</v>
+        <v>1.547868644956843</v>
       </c>
       <c r="C23">
-        <v>0.007580160000000001</v>
+        <v>0.0130032</v>
       </c>
       <c r="D23">
-        <v>0.05977388970857313</v>
+        <v>0.1025376565479514</v>
       </c>
       <c r="E23">
-        <v>0.103755300323297</v>
+        <v>0.1779844912460811</v>
       </c>
       <c r="F23">
-        <v>0.04546998031578735</v>
+        <v>0.0780003651693693</v>
       </c>
       <c r="G23">
-        <v>0.3231627689557014</v>
+        <v>0.5543616648309242</v>
       </c>
       <c r="H23">
-        <v>0.02008470740444318</v>
+        <v>0.03445381988262193</v>
       </c>
       <c r="I23">
-        <v>1.462150233845434</v>
+        <v>2.508209842633791</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1.068289892594236</v>
+        <v>1.832571757242773</v>
       </c>
       <c r="C24">
-        <v>0.0162432</v>
+        <v>0.02786399999999999</v>
       </c>
       <c r="D24">
-        <v>0.06743720890197995</v>
+        <v>0.1156835099515348</v>
       </c>
       <c r="E24">
-        <v>0.1117364772712429</v>
+        <v>0.1916756059573182</v>
       </c>
       <c r="F24">
-        <v>0.06030755283988641</v>
+        <v>0.1034531159088476</v>
       </c>
       <c r="G24">
-        <v>0.3145066233586742</v>
+        <v>0.5395126916658102</v>
       </c>
       <c r="H24">
-        <v>0.02343215863851704</v>
+        <v>0.04019612319639225</v>
       </c>
       <c r="I24">
-        <v>1.661953113604536</v>
+        <v>2.850956803922676</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.6918448828229342</v>
+        <v>1.18680837611913</v>
       </c>
       <c r="C25">
-        <v>0.0108288</v>
+        <v>0.01857600000000001</v>
       </c>
       <c r="D25">
-        <v>0.07050253657934261</v>
+        <v>0.1209418513129682</v>
       </c>
       <c r="E25">
-        <v>0.05852863095160338</v>
+        <v>0.1004015078824048</v>
       </c>
       <c r="F25">
-        <v>0.05599987049418022</v>
+        <v>0.09606360762964426</v>
       </c>
       <c r="G25">
-        <v>0.3347042964184054</v>
+        <v>0.5741602957177425</v>
       </c>
       <c r="H25">
-        <v>0.02677960987259091</v>
+        <v>0.04593842651016257</v>
       </c>
       <c r="I25">
-        <v>1.249188627139057</v>
+        <v>2.142890065172053</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.5691187225427621</v>
+        <v>0.9762807873406434</v>
       </c>
       <c r="C26">
-        <v>0.01461887999999999</v>
+        <v>0.02507760000000001</v>
       </c>
       <c r="D26">
-        <v>0.05977388970857313</v>
+        <v>0.1025376565479514</v>
       </c>
       <c r="E26">
-        <v>0.02394353084383776</v>
+        <v>0.04107334413371105</v>
       </c>
       <c r="F26">
-        <v>0.06892291753129871</v>
+        <v>0.1182321324672544</v>
       </c>
       <c r="G26">
-        <v>0.2741112772392111</v>
+        <v>0.4702174835619444</v>
       </c>
       <c r="H26">
-        <v>0.02343215863851704</v>
+        <v>0.04019612319639225</v>
       </c>
       <c r="I26">
-        <v>1.0339213765042</v>
+        <v>1.773615127247897</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.5672110620202732</v>
+        <v>0.9730083377741382</v>
       </c>
       <c r="C27">
-        <v>0.01678464</v>
+        <v>0.0287928</v>
       </c>
       <c r="D27">
-        <v>0.04444725132175955</v>
+        <v>0.07624594974078437</v>
       </c>
       <c r="E27">
-        <v>0.02926431547580169</v>
+        <v>0.05020075394120239</v>
       </c>
       <c r="F27">
-        <v>0.07514512536398543</v>
+        <v>0.128905866648326</v>
       </c>
       <c r="G27">
-        <v>0.276996659104887</v>
+        <v>0.4751671412836496</v>
       </c>
       <c r="H27">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I27">
-        <v>1.023238858223002</v>
+        <v>1.755290062643182</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.5335090594562888</v>
+        <v>0.9151950620992177</v>
       </c>
       <c r="C28">
-        <v>0.01461887999999999</v>
+        <v>0.02507760000000001</v>
       </c>
       <c r="D28">
-        <v>0.04751257899912228</v>
+        <v>0.08150429110221769</v>
       </c>
       <c r="E28">
-        <v>0.04522666937169353</v>
+        <v>0.0775829833636764</v>
       </c>
       <c r="F28">
-        <v>0.05599987049418022</v>
+        <v>0.09606360762964426</v>
       </c>
       <c r="G28">
-        <v>0.216403639925693</v>
+        <v>0.3712243291278514</v>
       </c>
       <c r="H28">
-        <v>0.02677960987259091</v>
+        <v>0.04593842651016257</v>
       </c>
       <c r="I28">
-        <v>0.9400503081195687</v>
+        <v>1.61258629983277</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.6594146539406087</v>
+        <v>1.131176733488544</v>
       </c>
       <c r="C29">
-        <v>0.01407744</v>
+        <v>0.0241488</v>
       </c>
       <c r="D29">
-        <v>0.05670856203121043</v>
+        <v>0.09727931518651786</v>
       </c>
       <c r="E29">
-        <v>0.03458510010776564</v>
+        <v>0.05932816374869375</v>
       </c>
       <c r="F29">
-        <v>0.06270070969861202</v>
+        <v>0.1075583982861829</v>
       </c>
       <c r="G29">
-        <v>0.2741112772392111</v>
+        <v>0.4702174835619444</v>
       </c>
       <c r="H29">
-        <v>0.02008470740444318</v>
+        <v>0.03445381988262193</v>
       </c>
       <c r="I29">
-        <v>1.121682450421851</v>
+        <v>1.924162714154505</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.5748417041102319</v>
+        <v>0.9860981360401586</v>
       </c>
       <c r="C30">
-        <v>0.01895039999999999</v>
+        <v>0.032508</v>
       </c>
       <c r="D30">
-        <v>0.05364323435384769</v>
+        <v>0.09202097382508448</v>
       </c>
       <c r="E30">
-        <v>0.03192470779178368</v>
+        <v>0.05476445884494808</v>
       </c>
       <c r="F30">
-        <v>0.05456397637894481</v>
+        <v>0.09360043820324317</v>
       </c>
       <c r="G30">
-        <v>0.2423720767167763</v>
+        <v>0.4157712486231928</v>
       </c>
       <c r="H30">
-        <v>0.02677960987259091</v>
+        <v>0.04593842651016257</v>
       </c>
       <c r="I30">
-        <v>1.003075709224175</v>
+        <v>1.72070168204679</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.7191880169786199</v>
+        <v>1.233713486572367</v>
       </c>
       <c r="C31">
-        <v>0.01840896</v>
+        <v>0.03157920000000001</v>
       </c>
       <c r="D31">
-        <v>0.07663319193406826</v>
+        <v>0.1314585340358349</v>
       </c>
       <c r="E31">
-        <v>0.04522666937169353</v>
+        <v>0.0775829833636764</v>
       </c>
       <c r="F31">
-        <v>0.05073492540498376</v>
+        <v>0.08703198639950675</v>
       </c>
       <c r="G31">
-        <v>0.216403639925693</v>
+        <v>0.3712243291278514</v>
       </c>
       <c r="H31">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I31">
-        <v>1.133290306083206</v>
+        <v>1.944075126126777</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.8946927850476725</v>
+        <v>1.534778846690822</v>
       </c>
       <c r="C32">
-        <v>0.01407744</v>
+        <v>0.0241488</v>
       </c>
       <c r="D32">
-        <v>0.1026884771916513</v>
+        <v>0.176154435608019</v>
       </c>
       <c r="E32">
-        <v>0.06384941558356737</v>
+        <v>0.1095289176898962</v>
       </c>
       <c r="F32">
-        <v>0.05360671363545454</v>
+        <v>0.09195832525230903</v>
       </c>
       <c r="G32">
-        <v>0.1731229119405543</v>
+        <v>0.2969794633022809</v>
       </c>
       <c r="H32">
-        <v>0.04686431727703408</v>
+        <v>0.0803922463927845</v>
       </c>
       <c r="I32">
-        <v>1.348902060675934</v>
+        <v>2.313941034936112</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.068289892594236</v>
+        <v>1.832571757242773</v>
       </c>
       <c r="C33">
-        <v>0.01407744</v>
+        <v>0.0241488</v>
       </c>
       <c r="D33">
-        <v>0.06743720890197995</v>
+        <v>0.1156835099515348</v>
       </c>
       <c r="E33">
-        <v>0.09577412337535104</v>
+        <v>0.1642933765348442</v>
       </c>
       <c r="F33">
-        <v>0.03541872150913962</v>
+        <v>0.06075817918456135</v>
       </c>
       <c r="G33">
-        <v>0.1327275658210917</v>
+        <v>0.2276842551984155</v>
       </c>
       <c r="H33">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I33">
-        <v>1.427114757138094</v>
+        <v>2.44810909136721</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.10771487672569</v>
+        <v>1.900202381617208</v>
       </c>
       <c r="C34">
-        <v>0.007580160000000001</v>
+        <v>0.0130032</v>
       </c>
       <c r="D34">
-        <v>0.0459799151604409</v>
+        <v>0.07887512042150105</v>
       </c>
       <c r="E34">
-        <v>0.1197176542191888</v>
+        <v>0.2053667206685553</v>
       </c>
       <c r="F34">
-        <v>0.02153841172853086</v>
+        <v>0.03694754139601703</v>
       </c>
       <c r="G34">
-        <v>0.1529252388808231</v>
+        <v>0.262331859250348</v>
       </c>
       <c r="H34">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I34">
-        <v>1.458803707948748</v>
+        <v>2.5024691266674</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.743351716930156</v>
+        <v>1.275164514414763</v>
       </c>
       <c r="C35">
-        <v>0.008663040000000002</v>
+        <v>0.01486079999999999</v>
       </c>
       <c r="D35">
-        <v>0.02298995758022045</v>
+        <v>0.03943756021075052</v>
       </c>
       <c r="E35">
-        <v>0.09843451569133296</v>
+        <v>0.1688570814385898</v>
       </c>
       <c r="F35">
-        <v>0.02249567447202112</v>
+        <v>0.03858965434695113</v>
       </c>
       <c r="G35">
-        <v>0.1731229119405543</v>
+        <v>0.2969794633022809</v>
       </c>
       <c r="H35">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I35">
-        <v>1.072405267848359</v>
+        <v>1.839631377027106</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.6307997461032634</v>
+        <v>1.08208998999097</v>
       </c>
       <c r="C36">
-        <v>0.009745919999999998</v>
+        <v>0.0167184</v>
       </c>
       <c r="D36">
-        <v>0.0352512682896713</v>
+        <v>0.06047092565648409</v>
       </c>
       <c r="E36">
-        <v>0.08247216179544117</v>
+        <v>0.1414748520161159</v>
       </c>
       <c r="F36">
-        <v>0.01818799212631494</v>
+        <v>0.0312001460677477</v>
       </c>
       <c r="G36">
-        <v>0.222174403657045</v>
+        <v>0.3811236445712607</v>
       </c>
       <c r="H36">
-        <v>0.01004235370222159</v>
+        <v>0.01722690994131097</v>
       </c>
       <c r="I36">
-        <v>1.008673845673957</v>
+        <v>1.73030486824389</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.5379602673420976</v>
+        <v>0.9228307777543958</v>
       </c>
       <c r="C37">
-        <v>0.01028736</v>
+        <v>0.0176472</v>
       </c>
       <c r="D37">
-        <v>0.0321859406123086</v>
+        <v>0.05521258429505067</v>
       </c>
       <c r="E37">
-        <v>0.0372454924237476</v>
+        <v>0.0638918686524394</v>
       </c>
       <c r="F37">
-        <v>0.01148715292188312</v>
+        <v>0.01970535541120907</v>
       </c>
       <c r="G37">
-        <v>0.1269568020897399</v>
+        <v>0.2177849397550059</v>
       </c>
       <c r="I37">
-        <v>0.7561230153897767</v>
+        <v>1.297072725868101</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.2238321679721257</v>
+        <v>0.3839674158032477</v>
       </c>
       <c r="C38">
-        <v>0.008663040000000002</v>
+        <v>0.01486079999999999</v>
       </c>
       <c r="D38">
-        <v>0.004597991516044096</v>
+        <v>0.007887512042150095</v>
       </c>
       <c r="E38">
-        <v>0.03192470779178368</v>
+        <v>0.05476445884494808</v>
       </c>
       <c r="F38">
-        <v>0.008615364691412339</v>
+        <v>0.01477901655840681</v>
       </c>
       <c r="G38">
-        <v>0.08367607410460136</v>
+        <v>0.1435400739294356</v>
       </c>
       <c r="I38">
-        <v>0.3613093460759672</v>
+        <v>0.6197992771781884</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.143710426027558</v>
+        <v>0.2465245340100397</v>
       </c>
       <c r="C39">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D39">
-        <v>0.004597991516044096</v>
+        <v>0.007887512042150095</v>
       </c>
       <c r="E39">
-        <v>0.01596235389589184</v>
+        <v>0.02738222942247404</v>
       </c>
       <c r="F39">
-        <v>0.00430768234570617</v>
+        <v>0.007389508279203403</v>
       </c>
       <c r="G39">
-        <v>0.08079069223892535</v>
+        <v>0.138590416207731</v>
       </c>
       <c r="I39">
-        <v>0.2542421060241254</v>
+        <v>0.4361333999615983</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.1449821997092177</v>
+        <v>0.2487061670543762</v>
       </c>
       <c r="C40">
-        <v>0.009745919999999998</v>
+        <v>0.0167184</v>
       </c>
       <c r="D40">
-        <v>0.003065327677362726</v>
+        <v>0.005258341361433395</v>
       </c>
       <c r="E40">
-        <v>0.0186227462118738</v>
+        <v>0.0319459343262197</v>
       </c>
       <c r="F40">
-        <v>0.007179470576176949</v>
+        <v>0.01231584713200568</v>
       </c>
       <c r="G40">
-        <v>0.1183006564927121</v>
+        <v>0.2029359665898918</v>
       </c>
       <c r="I40">
-        <v>0.3018963206673433</v>
+        <v>0.5178806564639268</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.06867577880962951</v>
+        <v>0.1178081843941783</v>
       </c>
       <c r="C41">
-        <v>0.009204480000000001</v>
+        <v>0.0157896</v>
       </c>
       <c r="D41">
-        <v>0.001532663838681363</v>
+        <v>0.002629170680716698</v>
       </c>
       <c r="E41">
-        <v>0.01330196157990986</v>
+        <v>0.02281852451872837</v>
       </c>
       <c r="F41">
-        <v>0.00765810194792208</v>
+        <v>0.01313690360747271</v>
       </c>
       <c r="G41">
-        <v>0.1211860383583881</v>
+        <v>0.2078856243115964</v>
       </c>
       <c r="I41">
-        <v>0.221559024534531</v>
+        <v>0.3800680075126925</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.06740400512796962</v>
+        <v>0.1156265513498416</v>
       </c>
       <c r="C42">
-        <v>0.00595584</v>
+        <v>0.0102168</v>
       </c>
       <c r="F42">
-        <v>0.00765810194792208</v>
+        <v>0.01313690360747271</v>
       </c>
       <c r="G42">
-        <v>0.1067591290300086</v>
+        <v>0.1831373357030733</v>
       </c>
       <c r="I42">
-        <v>0.1877770761059003</v>
+        <v>0.3221175906603876</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.05595804199303143</v>
+        <v>0.09599185395081193</v>
       </c>
       <c r="C43">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D43">
-        <v>0.001532663838681363</v>
+        <v>0.002629170680716698</v>
       </c>
       <c r="E43">
-        <v>0.007981176947945921</v>
+        <v>0.01369111471123702</v>
       </c>
       <c r="F43">
-        <v>0.007179470576176949</v>
+        <v>0.01231584713200568</v>
       </c>
       <c r="G43">
-        <v>0.1442690932837954</v>
+        <v>0.247482886085234</v>
       </c>
       <c r="I43">
-        <v>0.221793406639631</v>
+        <v>0.3804700725600053</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.09093181823867605</v>
+        <v>0.1559867626700695</v>
       </c>
       <c r="C44">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D44">
-        <v>0.006130655354725452</v>
+        <v>0.01051668272286679</v>
       </c>
       <c r="E44">
-        <v>0.01064156926392789</v>
+        <v>0.0182548196149827</v>
       </c>
       <c r="F44">
-        <v>0.01196578429362825</v>
+        <v>0.02052641188667614</v>
       </c>
       <c r="G44">
-        <v>0.1990913487316375</v>
+        <v>0.3415263827976227</v>
       </c>
       <c r="I44">
-        <v>0.3220098158825952</v>
+        <v>0.5523838596922177</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.2626212652627498</v>
+        <v>0.4505072236555147</v>
       </c>
       <c r="C45">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D45">
-        <v>0.01992462990285773</v>
+        <v>0.0341792188493171</v>
       </c>
       <c r="E45">
-        <v>0.04788706168767552</v>
+        <v>0.08214668826742211</v>
       </c>
       <c r="F45">
-        <v>0.02153841172853086</v>
+        <v>0.03694754139601703</v>
       </c>
       <c r="G45">
-        <v>0.4183803705230066</v>
+        <v>0.7177003696471789</v>
       </c>
       <c r="H45">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I45">
-        <v>0.7769478303388944</v>
+        <v>1.33279614512922</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.5951900830167896</v>
+        <v>1.021004264749545</v>
       </c>
       <c r="C46">
-        <v>0.001624320000000001</v>
+        <v>0.0027864</v>
       </c>
       <c r="D46">
-        <v>0.04751257899912228</v>
+        <v>0.08150429110221769</v>
       </c>
       <c r="E46">
-        <v>0.1276988311671347</v>
+        <v>0.2190578353797923</v>
       </c>
       <c r="F46">
-        <v>0.04546998031578735</v>
+        <v>0.0780003651693693</v>
       </c>
       <c r="G46">
-        <v>0.4616610985081449</v>
+        <v>0.7919452354727492</v>
       </c>
       <c r="H46">
-        <v>0.01004235370222159</v>
+        <v>0.01722690994131097</v>
       </c>
       <c r="I46">
-        <v>1.289199245709201</v>
+        <v>2.211525301814985</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.8628984430061784</v>
+        <v>1.480238020582407</v>
       </c>
       <c r="C47">
-        <v>0.004331520000000001</v>
+        <v>0.007430399999999997</v>
       </c>
       <c r="D47">
-        <v>0.0459799151604409</v>
+        <v>0.07887512042150105</v>
       </c>
       <c r="E47">
-        <v>0.1064156926392789</v>
+        <v>0.1825481961498269</v>
       </c>
       <c r="F47">
-        <v>0.04211956071357144</v>
+        <v>0.07225296984109994</v>
       </c>
       <c r="G47">
-        <v>0.2914235684332667</v>
+        <v>0.4999154298921729</v>
       </c>
       <c r="H47">
-        <v>0.01673725617036932</v>
+        <v>0.02871151656885162</v>
       </c>
       <c r="I47">
-        <v>1.369905956123106</v>
+        <v>2.349971653455859</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>0.9760863006738997</v>
+        <v>1.674403361528368</v>
       </c>
       <c r="C48">
-        <v>0.007580160000000001</v>
+        <v>0.0130032</v>
       </c>
       <c r="D48">
-        <v>0.05057790667648502</v>
+        <v>0.08676263246365104</v>
       </c>
       <c r="E48">
-        <v>0.08513255411142315</v>
+        <v>0.1460385569198616</v>
       </c>
       <c r="F48">
-        <v>0.04834176854625814</v>
+        <v>0.08292670402217162</v>
       </c>
       <c r="G48">
-        <v>0.2625697497765074</v>
+        <v>0.4504188526751262</v>
       </c>
       <c r="H48">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I48">
-        <v>1.436983342252721</v>
+        <v>2.465037914236719</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.7007472985945526</v>
+        <v>1.202079807429485</v>
       </c>
       <c r="C49">
-        <v>0.009204480000000001</v>
+        <v>0.0157896</v>
       </c>
       <c r="D49">
-        <v>0.05824122586989181</v>
+        <v>0.09990848586723475</v>
       </c>
       <c r="E49">
-        <v>0.05852863095160338</v>
+        <v>0.1004015078824048</v>
       </c>
       <c r="F49">
-        <v>0.06078618421163155</v>
+        <v>0.1042741723843147</v>
       </c>
       <c r="G49">
-        <v>0.3549019694781366</v>
+        <v>0.6088078997696759</v>
       </c>
       <c r="H49">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I49">
-        <v>1.249104691573964</v>
+        <v>2.142746079960655</v>
       </c>
     </row>
   </sheetData>
